--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6475.566240775207</v>
+        <v>6621.828196793325</v>
       </c>
       <c r="AB2" t="n">
-        <v>8860.155412449276</v>
+        <v>9060.277473295375</v>
       </c>
       <c r="AC2" t="n">
-        <v>8014.554615191007</v>
+        <v>8195.57730742302</v>
       </c>
       <c r="AD2" t="n">
-        <v>6475566.240775207</v>
+        <v>6621828.196793325</v>
       </c>
       <c r="AE2" t="n">
-        <v>8860155.412449276</v>
+        <v>9060277.473295376</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296371891132794e-07</v>
+        <v>1.164993647960895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.13333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>8014554.615191007</v>
+        <v>8195577.307423021</v>
       </c>
     </row>
     <row r="3">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2175.737617618514</v>
+        <v>2261.021481059692</v>
       </c>
       <c r="AB3" t="n">
-        <v>2976.940195194933</v>
+        <v>3093.629339613844</v>
       </c>
       <c r="AC3" t="n">
-        <v>2692.825201127334</v>
+        <v>2798.37769737703</v>
       </c>
       <c r="AD3" t="n">
-        <v>2175737.617618514</v>
+        <v>2261021.481059692</v>
       </c>
       <c r="AE3" t="n">
-        <v>2976940.195194933</v>
+        <v>3093629.339613845</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181663862793689e-06</v>
+        <v>2.186387522818176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2692825.201127334</v>
+        <v>2798377.69737703</v>
       </c>
     </row>
     <row r="4">
@@ -5739,28 +5739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1677.145350189572</v>
+        <v>1750.23361301707</v>
       </c>
       <c r="AB4" t="n">
-        <v>2294.744258560239</v>
+        <v>2394.746844187409</v>
       </c>
       <c r="AC4" t="n">
-        <v>2075.737087217045</v>
+        <v>2166.195566426467</v>
       </c>
       <c r="AD4" t="n">
-        <v>1677145.350189572</v>
+        <v>1750233.613017069</v>
       </c>
       <c r="AE4" t="n">
-        <v>2294744.258560239</v>
+        <v>2394746.844187409</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.382400835041111e-06</v>
+        <v>2.557803477311733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.99270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2075737.087217045</v>
+        <v>2166195.566426468</v>
       </c>
     </row>
     <row r="5">
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1490.074439590666</v>
+        <v>1550.967191313036</v>
       </c>
       <c r="AB5" t="n">
-        <v>2038.785585692708</v>
+        <v>2122.101734997864</v>
       </c>
       <c r="AC5" t="n">
-        <v>1844.206750847736</v>
+        <v>1919.571323798158</v>
       </c>
       <c r="AD5" t="n">
-        <v>1490074.439590666</v>
+        <v>1550967.191313036</v>
       </c>
       <c r="AE5" t="n">
-        <v>2038785.585692708</v>
+        <v>2122101.734997864</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.489188235975059e-06</v>
+        <v>2.755388127521968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.20416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1844206.750847736</v>
+        <v>1919571.323798158</v>
       </c>
     </row>
     <row r="6">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1372.591560451248</v>
+        <v>1433.569563519639</v>
       </c>
       <c r="AB6" t="n">
-        <v>1878.040327475325</v>
+        <v>1961.473121433131</v>
       </c>
       <c r="AC6" t="n">
-        <v>1698.802794467234</v>
+        <v>1774.272879668368</v>
       </c>
       <c r="AD6" t="n">
-        <v>1372591.560451248</v>
+        <v>1433569.563519639</v>
       </c>
       <c r="AE6" t="n">
-        <v>1878040.327475325</v>
+        <v>1961473.121433131</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.556732725910057e-06</v>
+        <v>2.880363118023797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.761458333333332</v>
       </c>
       <c r="AH6" t="n">
-        <v>1698802.794467234</v>
+        <v>1774272.879668368</v>
       </c>
     </row>
     <row r="7">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1306.42239897228</v>
+        <v>1367.229809840079</v>
       </c>
       <c r="AB7" t="n">
-        <v>1787.504761562423</v>
+        <v>1870.704143745381</v>
       </c>
       <c r="AC7" t="n">
-        <v>1616.907815897594</v>
+        <v>1692.166765816077</v>
       </c>
       <c r="AD7" t="n">
-        <v>1306422.398972281</v>
+        <v>1367229.809840079</v>
       </c>
       <c r="AE7" t="n">
-        <v>1787504.761562423</v>
+        <v>1870704.143745381</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.601519245154213e-06</v>
+        <v>2.963229904382462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.489583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1616907.815897594</v>
+        <v>1692166.765816077</v>
       </c>
     </row>
     <row r="8">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1259.673292355801</v>
+        <v>1320.480703223599</v>
       </c>
       <c r="AB8" t="n">
-        <v>1723.54057146473</v>
+        <v>1806.739953647689</v>
       </c>
       <c r="AC8" t="n">
-        <v>1559.04827832852</v>
+        <v>1634.307228247004</v>
       </c>
       <c r="AD8" t="n">
-        <v>1259673.292355801</v>
+        <v>1320480.703223599</v>
       </c>
       <c r="AE8" t="n">
-        <v>1723540.57146473</v>
+        <v>1806739.953647689</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.633467934777894e-06</v>
+        <v>3.022343344814212e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.303125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1559048.27832852</v>
+        <v>1634307.228247004</v>
       </c>
     </row>
     <row r="9">
@@ -6269,28 +6269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1220.979050670757</v>
+        <v>1269.76154263402</v>
       </c>
       <c r="AB9" t="n">
-        <v>1670.597402921788</v>
+        <v>1737.343760557581</v>
       </c>
       <c r="AC9" t="n">
-        <v>1511.157931485113</v>
+        <v>1571.534110427247</v>
       </c>
       <c r="AD9" t="n">
-        <v>1220979.050670756</v>
+        <v>1269761.54263402</v>
       </c>
       <c r="AE9" t="n">
-        <v>1670597.402921788</v>
+        <v>1737343.760557581</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.659727131728864e-06</v>
+        <v>3.070929734210172e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.155208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1511157.931485113</v>
+        <v>1571534.110427247</v>
       </c>
     </row>
     <row r="10">
@@ -6375,28 +6375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1189.64460197041</v>
+        <v>1238.427093933674</v>
       </c>
       <c r="AB10" t="n">
-        <v>1627.724227831661</v>
+        <v>1694.470585467454</v>
       </c>
       <c r="AC10" t="n">
-        <v>1472.376512052709</v>
+        <v>1532.752690994843</v>
       </c>
       <c r="AD10" t="n">
-        <v>1189644.60197041</v>
+        <v>1238427.093933674</v>
       </c>
       <c r="AE10" t="n">
-        <v>1627724.227831661</v>
+        <v>1694470.585467454</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.67825445402205e-06</v>
+        <v>3.105210131172877e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.054166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1472376.512052709</v>
+        <v>1532752.690994843</v>
       </c>
     </row>
     <row r="11">
@@ -6481,28 +6481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1149.190599202666</v>
+        <v>1210.083261416485</v>
       </c>
       <c r="AB11" t="n">
-        <v>1572.37327654019</v>
+        <v>1655.689303375798</v>
       </c>
       <c r="AC11" t="n">
-        <v>1422.308177866947</v>
+        <v>1497.672640036143</v>
       </c>
       <c r="AD11" t="n">
-        <v>1149190.599202666</v>
+        <v>1210083.261416485</v>
       </c>
       <c r="AE11" t="n">
-        <v>1572373.27654019</v>
+        <v>1655689.303375798</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.695322932040181e-06</v>
+        <v>3.13679128428025e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.963541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1422308.177866947</v>
+        <v>1497672.640036143</v>
       </c>
     </row>
     <row r="12">
@@ -6587,28 +6587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1125.497809990479</v>
+        <v>1186.390472204298</v>
       </c>
       <c r="AB12" t="n">
-        <v>1539.955757087985</v>
+        <v>1623.271783923593</v>
       </c>
       <c r="AC12" t="n">
-        <v>1392.984540972987</v>
+        <v>1468.349003142183</v>
       </c>
       <c r="AD12" t="n">
-        <v>1125497.809990479</v>
+        <v>1186390.472204298</v>
       </c>
       <c r="AE12" t="n">
-        <v>1539955.757087985</v>
+        <v>1623271.783923593</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.709181952653193e-06</v>
+        <v>3.162434100905895e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1392984.540972987</v>
+        <v>1468349.003142183</v>
       </c>
     </row>
     <row r="13">
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1104.775675606053</v>
+        <v>1165.668337819873</v>
       </c>
       <c r="AB13" t="n">
-        <v>1511.602818627166</v>
+        <v>1594.918845462774</v>
       </c>
       <c r="AC13" t="n">
-        <v>1367.337567165269</v>
+        <v>1442.702029334465</v>
       </c>
       <c r="AD13" t="n">
-        <v>1104775.675606054</v>
+        <v>1165668.337819873</v>
       </c>
       <c r="AE13" t="n">
-        <v>1511602.818627166</v>
+        <v>1594918.845462774</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.719393862578571e-06</v>
+        <v>3.181328807893214e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.838541666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1367337.567165269</v>
+        <v>1442702.029334465</v>
       </c>
     </row>
     <row r="14">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1082.558768693617</v>
+        <v>1143.451430907436</v>
       </c>
       <c r="AB14" t="n">
-        <v>1481.204666448813</v>
+        <v>1564.52069328442</v>
       </c>
       <c r="AC14" t="n">
-        <v>1339.840571966743</v>
+        <v>1415.205034135939</v>
       </c>
       <c r="AD14" t="n">
-        <v>1082558.768693617</v>
+        <v>1143451.430907436</v>
       </c>
       <c r="AE14" t="n">
-        <v>1481204.666448813</v>
+        <v>1564520.69328442</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.729459888076443e-06</v>
+        <v>3.199953590494997e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.786458333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1339840.571966743</v>
+        <v>1415205.034135939</v>
       </c>
     </row>
     <row r="15">
@@ -6905,28 +6905,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1064.601739937852</v>
+        <v>1125.494402151671</v>
       </c>
       <c r="AB15" t="n">
-        <v>1456.635067496977</v>
+        <v>1539.951094332585</v>
       </c>
       <c r="AC15" t="n">
-        <v>1317.615861055222</v>
+        <v>1392.980323224418</v>
       </c>
       <c r="AD15" t="n">
-        <v>1064601.739937852</v>
+        <v>1125494.402151671</v>
       </c>
       <c r="AE15" t="n">
-        <v>1456635.067496977</v>
+        <v>1539951.094332585</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.736316456169196e-06</v>
+        <v>3.212640036615053e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.752083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1317615.861055222</v>
+        <v>1392980.323224419</v>
       </c>
     </row>
     <row r="16">
@@ -7011,28 +7011,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1045.831804326219</v>
+        <v>1106.724466540038</v>
       </c>
       <c r="AB16" t="n">
-        <v>1430.953213522024</v>
+        <v>1514.269240357632</v>
       </c>
       <c r="AC16" t="n">
-        <v>1294.38504717893</v>
+        <v>1369.749509348126</v>
       </c>
       <c r="AD16" t="n">
-        <v>1045831.804326219</v>
+        <v>1106724.466540038</v>
       </c>
       <c r="AE16" t="n">
-        <v>1430953.213522024</v>
+        <v>1514269.240357632</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.743464793116961e-06</v>
+        <v>3.225866331506176e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.715625000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>1294385.04717893</v>
+        <v>1369749.509348126</v>
       </c>
     </row>
     <row r="17">
@@ -7117,28 +7117,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1029.698766496484</v>
+        <v>1090.591428710303</v>
       </c>
       <c r="AB17" t="n">
-        <v>1408.879279423983</v>
+        <v>1492.195306259591</v>
       </c>
       <c r="AC17" t="n">
-        <v>1274.417818370245</v>
+        <v>1349.782280539441</v>
       </c>
       <c r="AD17" t="n">
-        <v>1029698.766496484</v>
+        <v>1090591.428710303</v>
       </c>
       <c r="AE17" t="n">
-        <v>1408879.279423983</v>
+        <v>1492195.306259591</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.750467245637219e-06</v>
+        <v>3.238822702011765e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.68125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1274417.818370245</v>
+        <v>1349782.280539441</v>
       </c>
     </row>
     <row r="18">
@@ -7223,28 +7223,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1014.841261671911</v>
+        <v>1075.73392388573</v>
       </c>
       <c r="AB18" t="n">
-        <v>1388.55058585615</v>
+        <v>1471.866612691758</v>
       </c>
       <c r="AC18" t="n">
-        <v>1256.029266785025</v>
+        <v>1331.393728954221</v>
       </c>
       <c r="AD18" t="n">
-        <v>1014841.261671911</v>
+        <v>1075733.92388573</v>
       </c>
       <c r="AE18" t="n">
-        <v>1388550.58585615</v>
+        <v>1471866.612691758</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.753822587469844e-06</v>
+        <v>3.245030962879026e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.664583333333335</v>
       </c>
       <c r="AH18" t="n">
-        <v>1256029.266785025</v>
+        <v>1331393.728954221</v>
       </c>
     </row>
     <row r="19">
@@ -7329,28 +7329,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1009.091001283638</v>
+        <v>1069.983663497457</v>
       </c>
       <c r="AB19" t="n">
-        <v>1380.682825909331</v>
+        <v>1463.998852744939</v>
       </c>
       <c r="AC19" t="n">
-        <v>1248.912394805061</v>
+        <v>1324.276856974256</v>
       </c>
       <c r="AD19" t="n">
-        <v>1009091.001283638</v>
+        <v>1069983.663497457</v>
       </c>
       <c r="AE19" t="n">
-        <v>1380682.825909331</v>
+        <v>1463998.852744939</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.757177929302468e-06</v>
+        <v>3.251239223746288e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.647916666666665</v>
       </c>
       <c r="AH19" t="n">
-        <v>1248912.394805061</v>
+        <v>1324276.856974256</v>
       </c>
     </row>
     <row r="20">
@@ -7435,28 +7435,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1013.170594662738</v>
+        <v>1074.063256876557</v>
       </c>
       <c r="AB20" t="n">
-        <v>1386.264705549574</v>
+        <v>1469.580732385181</v>
       </c>
       <c r="AC20" t="n">
-        <v>1253.961547686655</v>
+        <v>1329.326009855851</v>
       </c>
       <c r="AD20" t="n">
-        <v>1013170.594662738</v>
+        <v>1074063.256876557</v>
       </c>
       <c r="AE20" t="n">
-        <v>1386264.705549574</v>
+        <v>1469580.732385181</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>3.250969299360755e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.648958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1253961.547686655</v>
+        <v>1329326.009855851</v>
       </c>
     </row>
     <row r="21">
@@ -7541,28 +7541,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1017.580551123508</v>
+        <v>1078.473213337327</v>
       </c>
       <c r="AB21" t="n">
-        <v>1392.298602532747</v>
+        <v>1475.614629368355</v>
       </c>
       <c r="AC21" t="n">
-        <v>1259.419578010383</v>
+        <v>1334.784040179579</v>
       </c>
       <c r="AD21" t="n">
-        <v>1017580.551123508</v>
+        <v>1078473.213337327</v>
       </c>
       <c r="AE21" t="n">
-        <v>1392298.602532747</v>
+        <v>1475614.629368355</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.757032044874962e-06</v>
+        <v>3.250969299360755e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.648958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1259419.578010383</v>
+        <v>1334784.040179579</v>
       </c>
     </row>
   </sheetData>
@@ -7838,28 +7838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3908.419382096978</v>
+        <v>4014.292880799985</v>
       </c>
       <c r="AB2" t="n">
-        <v>5347.671825879222</v>
+        <v>5492.532617613796</v>
       </c>
       <c r="AC2" t="n">
-        <v>4837.297532321652</v>
+        <v>4968.333013406474</v>
       </c>
       <c r="AD2" t="n">
-        <v>3908419.382096978</v>
+        <v>4014292.880799985</v>
       </c>
       <c r="AE2" t="n">
-        <v>5347671.825879222</v>
+        <v>5492532.617613796</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.273182184735345e-07</v>
+        <v>1.576996206415641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.00208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4837297.532321652</v>
+        <v>4968333.013406473</v>
       </c>
     </row>
     <row r="3">
@@ -7944,28 +7944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1708.028499120254</v>
+        <v>1778.610771916557</v>
       </c>
       <c r="AB3" t="n">
-        <v>2336.999945395571</v>
+        <v>2433.573724905584</v>
       </c>
       <c r="AC3" t="n">
-        <v>2113.959950607041</v>
+        <v>2201.316864142769</v>
       </c>
       <c r="AD3" t="n">
-        <v>1708028.499120254</v>
+        <v>1778610.771916557</v>
       </c>
       <c r="AE3" t="n">
-        <v>2336999.945395571</v>
+        <v>2433573.724905584</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.333488467426514e-06</v>
+        <v>2.541834819388655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.78958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2113959.950607041</v>
+        <v>2201316.864142769</v>
       </c>
     </row>
     <row r="4">
@@ -8050,28 +8050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1379.06666105339</v>
+        <v>1437.799970370956</v>
       </c>
       <c r="AB4" t="n">
-        <v>1886.899845780453</v>
+        <v>1967.261350719481</v>
       </c>
       <c r="AC4" t="n">
-        <v>1706.816772779733</v>
+        <v>1779.50868847546</v>
       </c>
       <c r="AD4" t="n">
-        <v>1379066.66105339</v>
+        <v>1437799.970370956</v>
       </c>
       <c r="AE4" t="n">
-        <v>1886899.845780453</v>
+        <v>1967261.350719481</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.514586946479459e-06</v>
+        <v>2.887036469826227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.37916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1706816.772779733</v>
+        <v>1779508.68847546</v>
       </c>
     </row>
     <row r="5">
@@ -8156,28 +8156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1233.3809870543</v>
+        <v>1292.199547717886</v>
       </c>
       <c r="AB5" t="n">
-        <v>1687.566279416571</v>
+        <v>1768.044429008247</v>
       </c>
       <c r="AC5" t="n">
-        <v>1526.507322223201</v>
+        <v>1599.304750169641</v>
       </c>
       <c r="AD5" t="n">
-        <v>1233380.9870543</v>
+        <v>1292199.547717886</v>
       </c>
       <c r="AE5" t="n">
-        <v>1687566.27941657</v>
+        <v>1768044.429008247</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.609059986385412e-06</v>
+        <v>3.067116664137827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.769791666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>1526507.322223201</v>
+        <v>1599304.750169641</v>
       </c>
     </row>
     <row r="6">
@@ -8262,28 +8262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1154.959706375988</v>
+        <v>1213.607674838982</v>
       </c>
       <c r="AB6" t="n">
-        <v>1580.266823489774</v>
+        <v>1660.511561306603</v>
       </c>
       <c r="AC6" t="n">
-        <v>1429.448375774326</v>
+        <v>1502.034668438115</v>
       </c>
       <c r="AD6" t="n">
-        <v>1154959.706375988</v>
+        <v>1213607.674838982</v>
       </c>
       <c r="AE6" t="n">
-        <v>1580266.823489774</v>
+        <v>1660511.561306603</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.667464245879986e-06</v>
+        <v>3.178444196403943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.428125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1429448.375774326</v>
+        <v>1502034.668438114</v>
       </c>
     </row>
     <row r="7">
@@ -8368,28 +8368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1102.314794244761</v>
+        <v>1149.369732284181</v>
       </c>
       <c r="AB7" t="n">
-        <v>1508.235732182222</v>
+        <v>1572.618374325112</v>
       </c>
       <c r="AC7" t="n">
-        <v>1364.291830724895</v>
+        <v>1422.529883863274</v>
       </c>
       <c r="AD7" t="n">
-        <v>1102314.794244761</v>
+        <v>1149369.732284181</v>
       </c>
       <c r="AE7" t="n">
-        <v>1508235.732182222</v>
+        <v>1572618.374325112</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.707305911271634e-06</v>
+        <v>3.254388559500209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.207291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1364291.830724895</v>
+        <v>1422529.883863274</v>
       </c>
     </row>
     <row r="8">
@@ -8474,28 +8474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1059.090042587197</v>
+        <v>1106.144980626617</v>
       </c>
       <c r="AB8" t="n">
-        <v>1449.093720022885</v>
+        <v>1513.476362165775</v>
       </c>
       <c r="AC8" t="n">
-        <v>1310.79424919971</v>
+        <v>1369.032302338088</v>
       </c>
       <c r="AD8" t="n">
-        <v>1059090.042587197</v>
+        <v>1106144.980626617</v>
       </c>
       <c r="AE8" t="n">
-        <v>1449093.720022885</v>
+        <v>1513476.362165775</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.736885329516948e-06</v>
+        <v>3.310771495738346e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.051041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1310794.24919971</v>
+        <v>1369032.302338088</v>
       </c>
     </row>
     <row r="9">
@@ -8580,28 +8580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1016.101521422244</v>
+        <v>1074.834741231258</v>
       </c>
       <c r="AB9" t="n">
-        <v>1390.274928845292</v>
+        <v>1470.636311314771</v>
       </c>
       <c r="AC9" t="n">
-        <v>1257.589040899415</v>
+        <v>1330.280845813915</v>
       </c>
       <c r="AD9" t="n">
-        <v>1016101.521422244</v>
+        <v>1074834.741231258</v>
       </c>
       <c r="AE9" t="n">
-        <v>1390274.928845292</v>
+        <v>1470636.311314771</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.758164400805669e-06</v>
+        <v>3.351332689664761e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.940624999999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>1257589.040899415</v>
+        <v>1330280.845813915</v>
       </c>
     </row>
     <row r="10">
@@ -8686,28 +8686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>983.7192283280558</v>
+        <v>1042.45244813707</v>
       </c>
       <c r="AB10" t="n">
-        <v>1345.968046827879</v>
+        <v>1426.329429297358</v>
       </c>
       <c r="AC10" t="n">
-        <v>1217.510745516644</v>
+        <v>1290.202550431144</v>
       </c>
       <c r="AD10" t="n">
-        <v>983719.2283280558</v>
+        <v>1042452.44813707</v>
       </c>
       <c r="AE10" t="n">
-        <v>1345968.046827879</v>
+        <v>1426329.429297358</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.77551967171491e-06</v>
+        <v>3.384414514498362e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1217510.745516644</v>
+        <v>1290202.550431144</v>
       </c>
     </row>
     <row r="11">
@@ -8792,28 +8792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>955.5410711107605</v>
+        <v>1014.274290919775</v>
       </c>
       <c r="AB11" t="n">
-        <v>1307.413448990615</v>
+        <v>1387.774831460094</v>
       </c>
       <c r="AC11" t="n">
-        <v>1182.63574438525</v>
+        <v>1255.327549299751</v>
       </c>
       <c r="AD11" t="n">
-        <v>955541.0711107606</v>
+        <v>1014274.290919775</v>
       </c>
       <c r="AE11" t="n">
-        <v>1307413.448990615</v>
+        <v>1387774.831460094</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.791214873232831e-06</v>
+        <v>3.414331990869618e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.777083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1182635.74438525</v>
+        <v>1255327.549299751</v>
       </c>
     </row>
     <row r="12">
@@ -8898,28 +8898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>931.5844427490756</v>
+        <v>990.3176625580902</v>
       </c>
       <c r="AB12" t="n">
-        <v>1274.634933174306</v>
+        <v>1354.996315643785</v>
       </c>
       <c r="AC12" t="n">
-        <v>1152.985564113514</v>
+        <v>1225.677369028015</v>
       </c>
       <c r="AD12" t="n">
-        <v>931584.4427490756</v>
+        <v>990317.6625580902</v>
       </c>
       <c r="AE12" t="n">
-        <v>1274634.933174306</v>
+        <v>1354996.315643785</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.800722543383111e-06</v>
+        <v>3.43245507751759e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.730208333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1152985.564113514</v>
+        <v>1225677.369028015</v>
       </c>
     </row>
     <row r="13">
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>913.0979137441386</v>
+        <v>971.8311335531532</v>
       </c>
       <c r="AB13" t="n">
-        <v>1249.340848621652</v>
+        <v>1329.70223109113</v>
       </c>
       <c r="AC13" t="n">
-        <v>1130.105511490094</v>
+        <v>1202.797316404595</v>
       </c>
       <c r="AD13" t="n">
-        <v>913097.9137441387</v>
+        <v>971831.1335531533</v>
       </c>
       <c r="AE13" t="n">
-        <v>1249340.848621652</v>
+        <v>1329702.231091131</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.808871974940494e-06</v>
+        <v>3.447989151787281e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.690625000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>1130105.511490094</v>
+        <v>1202797.316404595</v>
       </c>
     </row>
     <row r="14">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>909.450110237254</v>
+        <v>968.1833300462686</v>
       </c>
       <c r="AB14" t="n">
-        <v>1244.349762933799</v>
+        <v>1324.711145403278</v>
       </c>
       <c r="AC14" t="n">
-        <v>1125.590768015257</v>
+        <v>1198.282572929758</v>
       </c>
       <c r="AD14" t="n">
-        <v>909450.1102372539</v>
+        <v>968183.3300462685</v>
       </c>
       <c r="AE14" t="n">
-        <v>1244349.762933799</v>
+        <v>1324711.145403278</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.811437536727077e-06</v>
+        <v>3.452879508501813e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.679166666666665</v>
       </c>
       <c r="AH14" t="n">
-        <v>1125590.768015258</v>
+        <v>1198282.572929758</v>
       </c>
     </row>
     <row r="15">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>913.8304828334567</v>
+        <v>972.5637026424712</v>
       </c>
       <c r="AB15" t="n">
-        <v>1250.343181968324</v>
+        <v>1330.704564437803</v>
       </c>
       <c r="AC15" t="n">
-        <v>1131.012183548944</v>
+        <v>1203.703988463444</v>
       </c>
       <c r="AD15" t="n">
-        <v>913830.4828334567</v>
+        <v>972563.7026424712</v>
       </c>
       <c r="AE15" t="n">
-        <v>1250343.181968324</v>
+        <v>1330704.564437803</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.811135705928655e-06</v>
+        <v>3.45230417241775e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.680208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1131012.183548944</v>
+        <v>1203703.988463444</v>
       </c>
     </row>
     <row r="16">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>918.2391337714491</v>
+        <v>976.9723535804635</v>
       </c>
       <c r="AB16" t="n">
-        <v>1256.375292677637</v>
+        <v>1336.736675147116</v>
       </c>
       <c r="AC16" t="n">
-        <v>1136.468598078281</v>
+        <v>1209.160402992782</v>
       </c>
       <c r="AD16" t="n">
-        <v>918239.1337714491</v>
+        <v>976972.3535804636</v>
       </c>
       <c r="AE16" t="n">
-        <v>1256375.292677637</v>
+        <v>1336736.675147116</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.810984790529444e-06</v>
+        <v>3.452016504375719e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.680208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1136468.598078281</v>
+        <v>1209160.402992782</v>
       </c>
     </row>
   </sheetData>
@@ -9619,28 +9619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1277.011055053191</v>
+        <v>1339.706458654315</v>
       </c>
       <c r="AB2" t="n">
-        <v>1747.262863275405</v>
+        <v>1833.045480408462</v>
       </c>
       <c r="AC2" t="n">
-        <v>1580.506547903231</v>
+        <v>1658.102192453767</v>
       </c>
       <c r="AD2" t="n">
-        <v>1277011.055053191</v>
+        <v>1339706.458654315</v>
       </c>
       <c r="AE2" t="n">
-        <v>1747262.863275405</v>
+        <v>1833045.480408462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442679377636945e-06</v>
+        <v>3.072529520940355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.159375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1580506.54790323</v>
+        <v>1658102.192453767</v>
       </c>
     </row>
     <row r="3">
@@ -9725,28 +9725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.8273149306934</v>
+        <v>890.1445273866478</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.35229462064</v>
+        <v>1217.935012775394</v>
       </c>
       <c r="AC3" t="n">
-        <v>1036.946040537596</v>
+        <v>1101.697004538637</v>
       </c>
       <c r="AD3" t="n">
-        <v>837827.3149306935</v>
+        <v>890144.5273866479</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146352.29462064</v>
+        <v>1217935.012775394</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.798339333930773e-06</v>
+        <v>3.829992150592046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.754166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1036946.040537596</v>
+        <v>1101697.004538637</v>
       </c>
     </row>
     <row r="4">
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>721.4447499659951</v>
+        <v>763.2986094393095</v>
       </c>
       <c r="AB4" t="n">
-        <v>987.1125347995436</v>
+        <v>1044.378831792896</v>
       </c>
       <c r="AC4" t="n">
-        <v>892.9038998994182</v>
+        <v>944.7047818814774</v>
       </c>
       <c r="AD4" t="n">
-        <v>721444.7499659951</v>
+        <v>763298.6094393096</v>
       </c>
       <c r="AE4" t="n">
-        <v>987112.5347995436</v>
+        <v>1044378.831792896</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.922281439911955e-06</v>
+        <v>4.09395640031915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.126041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>892903.8998994182</v>
+        <v>944704.7818814775</v>
       </c>
     </row>
     <row r="5">
@@ -9937,28 +9937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>672.0717961197238</v>
+        <v>724.3036677211064</v>
       </c>
       <c r="AB5" t="n">
-        <v>919.5582811660798</v>
+        <v>991.0242321986367</v>
       </c>
       <c r="AC5" t="n">
-        <v>831.7969294197418</v>
+        <v>896.4422703888439</v>
       </c>
       <c r="AD5" t="n">
-        <v>672071.7961197238</v>
+        <v>724303.6677211064</v>
       </c>
       <c r="AE5" t="n">
-        <v>919558.2811660798</v>
+        <v>991024.2321986367</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.961181747631593e-06</v>
+        <v>4.176803875437303e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.944791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>831796.9294197417</v>
+        <v>896442.2703888438</v>
       </c>
     </row>
     <row r="6">
@@ -10043,28 +10043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>675.7255106572592</v>
+        <v>727.957382258642</v>
       </c>
       <c r="AB6" t="n">
-        <v>924.5574545868446</v>
+        <v>996.0234056194017</v>
       </c>
       <c r="AC6" t="n">
-        <v>836.318988745613</v>
+        <v>900.9643297147151</v>
       </c>
       <c r="AD6" t="n">
-        <v>675725.5106572591</v>
+        <v>727957.382258642</v>
       </c>
       <c r="AE6" t="n">
-        <v>924557.4545868447</v>
+        <v>996023.4056194017</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.961518546832629e-06</v>
+        <v>4.17752116959417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.942708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>836318.9887456129</v>
+        <v>900964.329714715</v>
       </c>
     </row>
   </sheetData>
@@ -10340,28 +10340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1911.323689083864</v>
+        <v>1988.041010061246</v>
       </c>
       <c r="AB2" t="n">
-        <v>2615.157393054582</v>
+        <v>2720.125416145169</v>
       </c>
       <c r="AC2" t="n">
-        <v>2365.570441857905</v>
+        <v>2460.520464148272</v>
       </c>
       <c r="AD2" t="n">
-        <v>1911323.689083864</v>
+        <v>1988041.010061246</v>
       </c>
       <c r="AE2" t="n">
-        <v>2615157.393054582</v>
+        <v>2720125.416145169</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196508669266168e-06</v>
+        <v>2.429326269541449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2365570.441857905</v>
+        <v>2460520.464148272</v>
       </c>
     </row>
     <row r="3">
@@ -10446,28 +10446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1121.642939618205</v>
+        <v>1176.416668503186</v>
       </c>
       <c r="AB3" t="n">
-        <v>1534.681353379761</v>
+        <v>1609.625185686567</v>
       </c>
       <c r="AC3" t="n">
-        <v>1388.213518952003</v>
+        <v>1456.004817087776</v>
       </c>
       <c r="AD3" t="n">
-        <v>1121642.939618204</v>
+        <v>1176416.668503186</v>
       </c>
       <c r="AE3" t="n">
-        <v>1534681.353379761</v>
+        <v>1609625.185686566</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.613119874156745e-06</v>
+        <v>3.2751910511537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.403125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1388213.518952003</v>
+        <v>1456004.817087776</v>
       </c>
     </row>
     <row r="4">
@@ -10552,28 +10552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>948.0561165552102</v>
+        <v>1002.915096786212</v>
       </c>
       <c r="AB4" t="n">
-        <v>1297.172203954821</v>
+        <v>1372.232680914275</v>
       </c>
       <c r="AC4" t="n">
-        <v>1173.371909401995</v>
+        <v>1241.26871978848</v>
       </c>
       <c r="AD4" t="n">
-        <v>948056.1165552102</v>
+        <v>1002915.096786212</v>
       </c>
       <c r="AE4" t="n">
-        <v>1297172.203954821</v>
+        <v>1372232.680914275</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.757951070288465e-06</v>
+        <v>3.569248452031276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1173371.909401995</v>
+        <v>1241268.719788481</v>
       </c>
     </row>
     <row r="5">
@@ -10658,28 +10658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.7065966283144</v>
+        <v>910.5938703216668</v>
       </c>
       <c r="AB5" t="n">
-        <v>1185.866201903314</v>
+        <v>1245.914705940426</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.688795967329</v>
+        <v>1127.006355057744</v>
       </c>
       <c r="AD5" t="n">
-        <v>866706.5966283143</v>
+        <v>910593.8703216668</v>
       </c>
       <c r="AE5" t="n">
-        <v>1185866.201903314</v>
+        <v>1245914.705940426</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.832541552834612e-06</v>
+        <v>3.720692919891474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.157291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072688.795967329</v>
+        <v>1127006.355057744</v>
       </c>
     </row>
     <row r="6">
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.5604100668339</v>
+        <v>852.3340494432641</v>
       </c>
       <c r="AB6" t="n">
-        <v>1091.25733893544</v>
+        <v>1166.201048772697</v>
       </c>
       <c r="AC6" t="n">
-        <v>987.1092700967354</v>
+        <v>1054.900457451282</v>
       </c>
       <c r="AD6" t="n">
-        <v>797560.410066834</v>
+        <v>852334.0494432641</v>
       </c>
       <c r="AE6" t="n">
-        <v>1091257.33893544</v>
+        <v>1166201.048772697</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.879422396076359e-06</v>
+        <v>3.815877239864083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.929166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>987109.2700967353</v>
+        <v>1054900.457451282</v>
       </c>
     </row>
     <row r="7">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>760.9755175857816</v>
+        <v>815.7491569622119</v>
       </c>
       <c r="AB7" t="n">
-        <v>1041.200275031319</v>
+        <v>1116.143984868576</v>
       </c>
       <c r="AC7" t="n">
-        <v>941.8295821160935</v>
+        <v>1009.62076947064</v>
       </c>
       <c r="AD7" t="n">
-        <v>760975.5175857816</v>
+        <v>815749.1569622119</v>
       </c>
       <c r="AE7" t="n">
-        <v>1041200.275031319</v>
+        <v>1116143.984868576</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904071086852948e-06</v>
+        <v>3.865922603973392e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.813541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>941829.5821160936</v>
+        <v>1009620.76947064</v>
       </c>
     </row>
     <row r="8">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>758.7271777809051</v>
+        <v>813.5008171573352</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038.123997320535</v>
+        <v>1113.067707157792</v>
       </c>
       <c r="AC8" t="n">
-        <v>939.046900032444</v>
+        <v>1006.83808738699</v>
       </c>
       <c r="AD8" t="n">
-        <v>758727.177780905</v>
+        <v>813500.8171573352</v>
       </c>
       <c r="AE8" t="n">
-        <v>1038123.997320535</v>
+        <v>1113067.707157793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.907937548151236e-06</v>
+        <v>3.873772857167009e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.795833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>939046.900032444</v>
+        <v>1006838.08738699</v>
       </c>
     </row>
     <row r="9">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>762.4312901429222</v>
+        <v>817.2049295193524</v>
       </c>
       <c r="AB9" t="n">
-        <v>1043.192127268152</v>
+        <v>1118.135837105409</v>
       </c>
       <c r="AC9" t="n">
-        <v>943.6313347710247</v>
+        <v>1011.422522125571</v>
       </c>
       <c r="AD9" t="n">
-        <v>762431.2901429222</v>
+        <v>817204.9295193524</v>
       </c>
       <c r="AE9" t="n">
-        <v>1043192.127268152</v>
+        <v>1118135.837105409</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.908098650705332e-06</v>
+        <v>3.874099951050077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.794791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>943631.3347710248</v>
+        <v>1011422.522125571</v>
       </c>
     </row>
   </sheetData>
@@ -11379,28 +11379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>915.8727570380822</v>
+        <v>966.1052880316006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1253.137511633871</v>
+        <v>1321.867876642066</v>
       </c>
       <c r="AC2" t="n">
-        <v>1133.539826313078</v>
+        <v>1195.710661748564</v>
       </c>
       <c r="AD2" t="n">
-        <v>915872.7570380822</v>
+        <v>966105.2880316006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1253137.511633871</v>
+        <v>1321867.876642066</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.655926260673438e-06</v>
+        <v>3.687424340310746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1133539.826313078</v>
+        <v>1195710.661748564</v>
       </c>
     </row>
     <row r="3">
@@ -11485,28 +11485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.5251334215777</v>
+        <v>691.5869827059531</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.7629896388285</v>
+        <v>946.2598204026278</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.9905218557915</v>
+        <v>855.9501112273995</v>
       </c>
       <c r="AD3" t="n">
-        <v>641525.1334215777</v>
+        <v>691586.9827059531</v>
       </c>
       <c r="AE3" t="n">
-        <v>877762.9896388284</v>
+        <v>946259.8204026278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.958498338299658e-06</v>
+        <v>4.361193257583411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.302083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>793990.5218557914</v>
+        <v>855950.1112273994</v>
       </c>
     </row>
     <row r="4">
@@ -11591,28 +11591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>619.3369670453841</v>
+        <v>659.523009741909</v>
       </c>
       <c r="AB4" t="n">
-        <v>847.4041615301053</v>
+        <v>902.3884780305708</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.5290976928817</v>
+        <v>816.2657881975157</v>
       </c>
       <c r="AD4" t="n">
-        <v>619336.9670453841</v>
+        <v>659523.0097419091</v>
       </c>
       <c r="AE4" t="n">
-        <v>847404.1615301053</v>
+        <v>902388.4780305708</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.989804928990464e-06</v>
+        <v>4.430906920122028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>766529.0976928817</v>
+        <v>816265.7881975156</v>
       </c>
     </row>
     <row r="5">
@@ -11697,28 +11697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>624.8352219577911</v>
+        <v>665.0212646543162</v>
       </c>
       <c r="AB5" t="n">
-        <v>854.927116467148</v>
+        <v>909.9114329676136</v>
       </c>
       <c r="AC5" t="n">
-        <v>773.3340723692669</v>
+        <v>823.0707628739005</v>
       </c>
       <c r="AD5" t="n">
-        <v>624835.2219577911</v>
+        <v>665021.2646543161</v>
       </c>
       <c r="AE5" t="n">
-        <v>854927.1164671481</v>
+        <v>909911.4329676136</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.989455134681069e-06</v>
+        <v>4.430127996518244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.157291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>773334.0723692669</v>
+        <v>823070.7628739006</v>
       </c>
     </row>
   </sheetData>
@@ -11994,28 +11994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4414.354795428075</v>
+        <v>4533.041847357972</v>
       </c>
       <c r="AB2" t="n">
-        <v>6039.914978694015</v>
+        <v>6202.307839247698</v>
       </c>
       <c r="AC2" t="n">
-        <v>5463.473970201145</v>
+        <v>5610.368284063387</v>
       </c>
       <c r="AD2" t="n">
-        <v>4414354.795428075</v>
+        <v>4533041.847357973</v>
       </c>
       <c r="AE2" t="n">
-        <v>6039914.978694015</v>
+        <v>6202307.839247698</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.748689974373756e-07</v>
+        <v>1.465094148296785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5463473.970201145</v>
+        <v>5610368.284063388</v>
       </c>
     </row>
     <row r="3">
@@ -12100,28 +12100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1828.564207382646</v>
+        <v>1899.742338002177</v>
       </c>
       <c r="AB3" t="n">
-        <v>2501.922219100324</v>
+        <v>2599.311277571468</v>
       </c>
       <c r="AC3" t="n">
-        <v>2263.142273979277</v>
+        <v>2351.236657396336</v>
       </c>
       <c r="AD3" t="n">
-        <v>1828564.207382646</v>
+        <v>1899742.338002177</v>
       </c>
       <c r="AE3" t="n">
-        <v>2501922.219100324</v>
+        <v>2599311.277571468</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292794366695363e-06</v>
+        <v>2.44436861954785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.05</v>
       </c>
       <c r="AH3" t="n">
-        <v>2263142.273979277</v>
+        <v>2351236.657396337</v>
       </c>
     </row>
     <row r="4">
@@ -12206,28 +12206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1450.330462253418</v>
+        <v>1509.801954745949</v>
       </c>
       <c r="AB4" t="n">
-        <v>1984.406122519353</v>
+        <v>2065.777642244711</v>
       </c>
       <c r="AC4" t="n">
-        <v>1795.017187317591</v>
+        <v>1868.622723406006</v>
       </c>
       <c r="AD4" t="n">
-        <v>1450330.462253418</v>
+        <v>1509801.954745949</v>
       </c>
       <c r="AE4" t="n">
-        <v>1984406.122519353</v>
+        <v>2065777.642244712</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.480342276903135e-06</v>
+        <v>2.798977394294843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1795017.187317591</v>
+        <v>1868622.723406006</v>
       </c>
     </row>
     <row r="5">
@@ -12312,28 +12312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1292.235523081162</v>
+        <v>1351.621674719121</v>
       </c>
       <c r="AB5" t="n">
-        <v>1768.093652087402</v>
+        <v>1849.348404690562</v>
       </c>
       <c r="AC5" t="n">
-        <v>1599.349275467206</v>
+        <v>1672.849188523682</v>
       </c>
       <c r="AD5" t="n">
-        <v>1292235.523081162</v>
+        <v>1351621.674719121</v>
       </c>
       <c r="AE5" t="n">
-        <v>1768093.652087402</v>
+        <v>1849348.404690562</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577705665695208e-06</v>
+        <v>2.983068552476893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.873958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1599349.275467206</v>
+        <v>1672849.188523682</v>
       </c>
     </row>
     <row r="6">
@@ -12418,28 +12418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.45382810952</v>
+        <v>1266.83997974748</v>
       </c>
       <c r="AB6" t="n">
-        <v>1652.091596722798</v>
+        <v>1733.346349325958</v>
       </c>
       <c r="AC6" t="n">
-        <v>1494.418293456692</v>
+        <v>1567.918206513169</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207453.82810952</v>
+        <v>1266839.97974748</v>
       </c>
       <c r="AE6" t="n">
-        <v>1652091.596722798</v>
+        <v>1733346.349325958</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.639324277342419e-06</v>
+        <v>3.099574784690419e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.503125000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>1494418.293456692</v>
+        <v>1567918.206513169</v>
       </c>
     </row>
     <row r="7">
@@ -12524,28 +12524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1153.468542890033</v>
+        <v>1212.6841023274</v>
       </c>
       <c r="AB7" t="n">
-        <v>1578.226547822801</v>
+        <v>1659.247888651114</v>
       </c>
       <c r="AC7" t="n">
-        <v>1427.602821153464</v>
+        <v>1500.891598927289</v>
       </c>
       <c r="AD7" t="n">
-        <v>1153468.542890033</v>
+        <v>1212684.1023274</v>
       </c>
       <c r="AE7" t="n">
-        <v>1578226.5478228</v>
+        <v>1659247.888651114</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.678808047912477e-06</v>
+        <v>3.174229263584523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.280208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1427602.821153464</v>
+        <v>1500891.598927289</v>
       </c>
     </row>
     <row r="8">
@@ -12630,28 +12630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1108.572533231808</v>
+        <v>1156.081544050726</v>
       </c>
       <c r="AB8" t="n">
-        <v>1516.79784673626</v>
+        <v>1581.801771288337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1372.036789082899</v>
+        <v>1430.836830309306</v>
       </c>
       <c r="AD8" t="n">
-        <v>1108572.533231808</v>
+        <v>1156081.544050726</v>
       </c>
       <c r="AE8" t="n">
-        <v>1516797.84673626</v>
+        <v>1581801.771288336</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.710963391369152e-06</v>
+        <v>3.235027418744493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.105208333333332</v>
       </c>
       <c r="AH8" t="n">
-        <v>1372036.789082899</v>
+        <v>1430836.830309306</v>
       </c>
     </row>
     <row r="9">
@@ -12736,28 +12736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1064.053940226694</v>
+        <v>1123.354751010082</v>
       </c>
       <c r="AB9" t="n">
-        <v>1455.885543764953</v>
+        <v>1537.023529245917</v>
       </c>
       <c r="AC9" t="n">
-        <v>1316.93787081622</v>
+        <v>1390.332160840758</v>
       </c>
       <c r="AD9" t="n">
-        <v>1064053.940226694</v>
+        <v>1123354.751010082</v>
       </c>
       <c r="AE9" t="n">
-        <v>1455885.543764953</v>
+        <v>1537023.529245917</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.73145307533922e-06</v>
+        <v>3.273768568776661e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.997916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1316937.87081622</v>
+        <v>1390332.160840757</v>
       </c>
     </row>
     <row r="10">
@@ -12842,28 +12842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1035.502048858251</v>
+        <v>1094.802859641639</v>
       </c>
       <c r="AB10" t="n">
-        <v>1416.819586374102</v>
+        <v>1497.957571855065</v>
       </c>
       <c r="AC10" t="n">
-        <v>1281.600313569336</v>
+        <v>1354.994603593873</v>
       </c>
       <c r="AD10" t="n">
-        <v>1035502.048858251</v>
+        <v>1094802.859641639</v>
       </c>
       <c r="AE10" t="n">
-        <v>1416819.586374102</v>
+        <v>1497957.571855065</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.749101124306139e-06</v>
+        <v>3.307136858585389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.907291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1281600.313569336</v>
+        <v>1354994.603593873</v>
       </c>
     </row>
     <row r="11">
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1007.660319622609</v>
+        <v>1066.961130405997</v>
       </c>
       <c r="AB11" t="n">
-        <v>1378.725304143491</v>
+        <v>1459.863289624454</v>
       </c>
       <c r="AC11" t="n">
-        <v>1247.141696169153</v>
+        <v>1320.535986193691</v>
       </c>
       <c r="AD11" t="n">
-        <v>1007660.319622609</v>
+        <v>1066961.130405996</v>
       </c>
       <c r="AE11" t="n">
-        <v>1378725.304143491</v>
+        <v>1459863.289624454</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765104016165973e-06</v>
+        <v>3.337394545106863e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.826041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1247141.696169153</v>
+        <v>1320535.986193691</v>
       </c>
     </row>
     <row r="12">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>980.5621722009756</v>
+        <v>1039.862982984363</v>
       </c>
       <c r="AB12" t="n">
-        <v>1341.648423355321</v>
+        <v>1422.786408836284</v>
       </c>
       <c r="AC12" t="n">
-        <v>1213.603380845677</v>
+        <v>1286.997670870215</v>
       </c>
       <c r="AD12" t="n">
-        <v>980562.1722009756</v>
+        <v>1039862.982984363</v>
       </c>
       <c r="AE12" t="n">
-        <v>1341648.423355321</v>
+        <v>1422786.408836284</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.776470556178565e-06</v>
+        <v>3.35888598600062e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.769791666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1213603.380845677</v>
+        <v>1286997.670870215</v>
       </c>
     </row>
     <row r="13">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>958.3093821039824</v>
+        <v>1017.61019288737</v>
       </c>
       <c r="AB13" t="n">
-        <v>1311.201174220803</v>
+        <v>1392.339159701766</v>
       </c>
       <c r="AC13" t="n">
-        <v>1186.061974435575</v>
+        <v>1259.456264460112</v>
       </c>
       <c r="AD13" t="n">
-        <v>958309.3821039825</v>
+        <v>1017610.19288737</v>
       </c>
       <c r="AE13" t="n">
-        <v>1311201.174220803</v>
+        <v>1392339.159701766</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.786640618295095e-06</v>
+        <v>3.378115169958193e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.719791666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1186061.974435575</v>
+        <v>1259456.264460112</v>
       </c>
     </row>
     <row r="14">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>943.54092774428</v>
+        <v>1002.841738527668</v>
       </c>
       <c r="AB14" t="n">
-        <v>1290.994323427635</v>
+        <v>1372.132308908598</v>
       </c>
       <c r="AC14" t="n">
-        <v>1167.783637121613</v>
+        <v>1241.177927146151</v>
       </c>
       <c r="AD14" t="n">
-        <v>943540.92774428</v>
+        <v>1002841.738527668</v>
       </c>
       <c r="AE14" t="n">
-        <v>1290994.323427635</v>
+        <v>1372132.308908598</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.79307168698643e-06</v>
+        <v>3.390274800990187e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.688541666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1167783.637121613</v>
+        <v>1241177.927146151</v>
       </c>
     </row>
     <row r="15">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>934.3372803816852</v>
+        <v>993.6380911650729</v>
       </c>
       <c r="AB15" t="n">
-        <v>1278.401487069867</v>
+        <v>1359.53947255083</v>
       </c>
       <c r="AC15" t="n">
-        <v>1156.392643391675</v>
+        <v>1229.786933416212</v>
       </c>
       <c r="AD15" t="n">
-        <v>934337.2803816852</v>
+        <v>993638.0911650729</v>
       </c>
       <c r="AE15" t="n">
-        <v>1278401.487069868</v>
+        <v>1359539.47255083</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.795763762252571e-06</v>
+        <v>3.395364879096603e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.674999999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>1156392.643391675</v>
+        <v>1229786.933416212</v>
       </c>
     </row>
     <row r="16">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>936.3732975366071</v>
+        <v>995.6741083199946</v>
       </c>
       <c r="AB16" t="n">
-        <v>1281.187255563969</v>
+        <v>1362.325241044932</v>
       </c>
       <c r="AC16" t="n">
-        <v>1158.91254205055</v>
+        <v>1232.306832075088</v>
       </c>
       <c r="AD16" t="n">
-        <v>936373.2975366071</v>
+        <v>995674.1083199946</v>
       </c>
       <c r="AE16" t="n">
-        <v>1281187.255563969</v>
+        <v>1362325.241044932</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.797558479096664e-06</v>
+        <v>3.39875826450088e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1158912.54205055</v>
+        <v>1232306.832075088</v>
       </c>
     </row>
     <row r="17">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>940.8938354098448</v>
+        <v>1000.194646193232</v>
       </c>
       <c r="AB17" t="n">
-        <v>1287.372454914188</v>
+        <v>1368.510440395152</v>
       </c>
       <c r="AC17" t="n">
-        <v>1164.507434655766</v>
+        <v>1237.901724680304</v>
       </c>
       <c r="AD17" t="n">
-        <v>940893.8354098448</v>
+        <v>1000194.646193232</v>
       </c>
       <c r="AE17" t="n">
-        <v>1287372.454914188</v>
+        <v>1368510.440395151</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.797408919359656e-06</v>
+        <v>3.398475482383857e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.667708333333332</v>
       </c>
       <c r="AH17" t="n">
-        <v>1164507.434655766</v>
+        <v>1237901.724680304</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>733.7726868176023</v>
+        <v>782.6853803955756</v>
       </c>
       <c r="AB2" t="n">
-        <v>1003.980161870102</v>
+        <v>1070.90466709923</v>
       </c>
       <c r="AC2" t="n">
-        <v>908.1617043162261</v>
+        <v>968.6990286954194</v>
       </c>
       <c r="AD2" t="n">
-        <v>733772.6868176024</v>
+        <v>782685.3803955757</v>
       </c>
       <c r="AE2" t="n">
-        <v>1003980.161870102</v>
+        <v>1070904.66709923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.7923714746931e-06</v>
+        <v>4.109131243275504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>908161.7043162261</v>
+        <v>968699.0286954194</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.4668749115363</v>
+        <v>628.2942276349379</v>
       </c>
       <c r="AB3" t="n">
-        <v>792.8521425282498</v>
+        <v>859.6598806351806</v>
       </c>
       <c r="AC3" t="n">
-        <v>717.183446820324</v>
+        <v>777.6151481675785</v>
       </c>
       <c r="AD3" t="n">
-        <v>579466.8749115362</v>
+        <v>628294.2276349379</v>
       </c>
       <c r="AE3" t="n">
-        <v>792852.1425282499</v>
+        <v>859659.8806351806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994984267718124e-06</v>
+        <v>4.573634595321427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.345833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>717183.4468203239</v>
+        <v>777615.1481675785</v>
       </c>
     </row>
     <row r="4">
@@ -14093,28 +14093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.827181655824</v>
+        <v>633.6545343792255</v>
       </c>
       <c r="AB4" t="n">
-        <v>800.1863506958279</v>
+        <v>866.9940888027587</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.8176884540143</v>
+        <v>784.2493898012688</v>
       </c>
       <c r="AD4" t="n">
-        <v>584827.181655824</v>
+        <v>633654.5343792256</v>
       </c>
       <c r="AE4" t="n">
-        <v>800186.3506958279</v>
+        <v>866994.0888027587</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.996058187115783e-06</v>
+        <v>4.576096627222731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.340625000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>723817.6884540142</v>
+        <v>784249.3898012688</v>
       </c>
     </row>
   </sheetData>
@@ -14390,28 +14390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2737.031604768764</v>
+        <v>2828.108678755999</v>
       </c>
       <c r="AB2" t="n">
-        <v>3744.92739095718</v>
+        <v>3869.543061623448</v>
       </c>
       <c r="AC2" t="n">
-        <v>3387.51677680269</v>
+        <v>3500.239302759757</v>
       </c>
       <c r="AD2" t="n">
-        <v>2737031.604768764</v>
+        <v>2828108.678756</v>
       </c>
       <c r="AE2" t="n">
-        <v>3744927.39095718</v>
+        <v>3869543.061623449</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.977769280042917e-07</v>
+        <v>1.955628989676939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3387516.77680269</v>
+        <v>3500239.302759757</v>
       </c>
     </row>
     <row r="3">
@@ -14496,28 +14496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1408.015522087896</v>
+        <v>1464.992064929732</v>
       </c>
       <c r="AB3" t="n">
-        <v>1926.508954581477</v>
+        <v>2004.466774125345</v>
       </c>
       <c r="AC3" t="n">
-        <v>1742.645643828521</v>
+        <v>1813.163278489608</v>
       </c>
       <c r="AD3" t="n">
-        <v>1408015.522087896</v>
+        <v>1464992.064929732</v>
       </c>
       <c r="AE3" t="n">
-        <v>1926508.954581477</v>
+        <v>2004466.774125345</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.463779336174599e-06</v>
+        <v>2.868987269568132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.06458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1742645.643828521</v>
+        <v>1813163.278489608</v>
       </c>
     </row>
     <row r="4">
@@ -14602,28 +14602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1153.993805304117</v>
+        <v>1222.194867594915</v>
       </c>
       <c r="AB4" t="n">
-        <v>1578.945235030692</v>
+        <v>1672.260937275479</v>
       </c>
       <c r="AC4" t="n">
-        <v>1428.252917862918</v>
+        <v>1512.662700454873</v>
       </c>
       <c r="AD4" t="n">
-        <v>1153993.805304117</v>
+        <v>1222194.867594915</v>
       </c>
       <c r="AE4" t="n">
-        <v>1578945.235030692</v>
+        <v>1672260.937275479</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62875382902368e-06</v>
+        <v>3.192334995615699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.94375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1428252.917862918</v>
+        <v>1512662.700454873</v>
       </c>
     </row>
     <row r="5">
@@ -14708,28 +14708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1053.447906071268</v>
+        <v>1110.25376720396</v>
       </c>
       <c r="AB5" t="n">
-        <v>1441.373899928295</v>
+        <v>1519.098185227767</v>
       </c>
       <c r="AC5" t="n">
-        <v>1303.811197900112</v>
+        <v>1374.117586497322</v>
       </c>
       <c r="AD5" t="n">
-        <v>1053447.906071268</v>
+        <v>1110253.76720396</v>
       </c>
       <c r="AE5" t="n">
-        <v>1441373.899928295</v>
+        <v>1519098.185227767</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.711474309886744e-06</v>
+        <v>3.354465994915704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.463541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1303811.197900112</v>
+        <v>1374117.586497322</v>
       </c>
     </row>
     <row r="6">
@@ -14814,28 +14814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>987.5346005072468</v>
+        <v>1033.115852682426</v>
       </c>
       <c r="AB6" t="n">
-        <v>1351.188407365789</v>
+        <v>1413.554687494792</v>
       </c>
       <c r="AC6" t="n">
-        <v>1222.232882171638</v>
+        <v>1278.647012056753</v>
       </c>
       <c r="AD6" t="n">
-        <v>987534.6005072468</v>
+        <v>1033115.852682426</v>
       </c>
       <c r="AE6" t="n">
-        <v>1351188.407365789</v>
+        <v>1413554.687494792</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.76449627224446e-06</v>
+        <v>3.458388308376797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.179166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1222232.882171638</v>
+        <v>1278647.012056753</v>
       </c>
     </row>
     <row r="7">
@@ -14920,28 +14920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>927.9270058470144</v>
+        <v>984.8181183257275</v>
       </c>
       <c r="AB7" t="n">
-        <v>1269.630666650177</v>
+        <v>1347.471596602298</v>
       </c>
       <c r="AC7" t="n">
-        <v>1148.458897762916</v>
+        <v>1218.870798610838</v>
       </c>
       <c r="AD7" t="n">
-        <v>927927.0058470144</v>
+        <v>984818.1183257275</v>
       </c>
       <c r="AE7" t="n">
-        <v>1269630.666650177</v>
+        <v>1347471.596602298</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.801036334279836e-06</v>
+        <v>3.530006324984882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.992708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1148458.897762916</v>
+        <v>1218870.798610838</v>
       </c>
     </row>
     <row r="8">
@@ -15026,28 +15026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>890.9295541122934</v>
+        <v>947.8206665910067</v>
       </c>
       <c r="AB8" t="n">
-        <v>1219.009120974357</v>
+        <v>1296.850050926478</v>
       </c>
       <c r="AC8" t="n">
-        <v>1102.668601358611</v>
+        <v>1173.080502206533</v>
       </c>
       <c r="AD8" t="n">
-        <v>890929.5541122934</v>
+        <v>947820.6665910067</v>
       </c>
       <c r="AE8" t="n">
-        <v>1219009.120974357</v>
+        <v>1296850.050926478</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.825292715886299e-06</v>
+        <v>3.57754849771195e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.872916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1102668.601358611</v>
+        <v>1173080.502206533</v>
       </c>
     </row>
     <row r="9">
@@ -15132,28 +15132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>857.6514049095485</v>
+        <v>914.5425173882618</v>
       </c>
       <c r="AB9" t="n">
-        <v>1173.476489106834</v>
+        <v>1251.317419058955</v>
       </c>
       <c r="AC9" t="n">
-        <v>1061.481539971074</v>
+        <v>1131.893440818996</v>
       </c>
       <c r="AD9" t="n">
-        <v>857651.4049095486</v>
+        <v>914542.5173882617</v>
       </c>
       <c r="AE9" t="n">
-        <v>1173476.489106834</v>
+        <v>1251317.419058956</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.844573429470923e-06</v>
+        <v>3.615338429879621e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.78125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1061481.539971074</v>
+        <v>1131893.440818996</v>
       </c>
     </row>
     <row r="10">
@@ -15238,28 +15238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>837.0314954337611</v>
+        <v>893.9226079124743</v>
       </c>
       <c r="AB10" t="n">
-        <v>1145.263419275858</v>
+        <v>1223.10434922798</v>
       </c>
       <c r="AC10" t="n">
-        <v>1035.961085927474</v>
+        <v>1106.372986775396</v>
       </c>
       <c r="AD10" t="n">
-        <v>837031.495433761</v>
+        <v>893922.6079124743</v>
       </c>
       <c r="AE10" t="n">
-        <v>1145263.419275858</v>
+        <v>1223104.34922798</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.855457703268695e-06</v>
+        <v>3.636671456103306e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.729166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1035961.085927474</v>
+        <v>1106372.986775396</v>
       </c>
     </row>
     <row r="11">
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>835.6616401070993</v>
+        <v>892.5527525858126</v>
       </c>
       <c r="AB11" t="n">
-        <v>1143.389122784168</v>
+        <v>1221.230052736289</v>
       </c>
       <c r="AC11" t="n">
-        <v>1034.265669662359</v>
+        <v>1104.677570510281</v>
       </c>
       <c r="AD11" t="n">
-        <v>835661.6401070993</v>
+        <v>892552.7525858126</v>
       </c>
       <c r="AE11" t="n">
-        <v>1143389.122784168</v>
+        <v>1221230.052736289</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.856546130648471e-06</v>
+        <v>3.638804758725674e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1034265.669662359</v>
+        <v>1104677.570510281</v>
       </c>
     </row>
     <row r="12">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>839.1130135253777</v>
+        <v>896.0041260040911</v>
       </c>
       <c r="AB12" t="n">
-        <v>1148.111444158905</v>
+        <v>1225.952374111027</v>
       </c>
       <c r="AC12" t="n">
-        <v>1038.537299312911</v>
+        <v>1108.949200160833</v>
       </c>
       <c r="AD12" t="n">
-        <v>839113.0135253777</v>
+        <v>896004.1260040911</v>
       </c>
       <c r="AE12" t="n">
-        <v>1148111.444158905</v>
+        <v>1225952.374111027</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.858256516530979e-06</v>
+        <v>3.642157091417968e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.716666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1038537.299312911</v>
+        <v>1108949.200160834</v>
       </c>
     </row>
   </sheetData>
@@ -15747,28 +15747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3472.18154663838</v>
+        <v>3576.909190686401</v>
       </c>
       <c r="AB2" t="n">
-        <v>4750.791973949709</v>
+        <v>4894.084956793795</v>
       </c>
       <c r="AC2" t="n">
-        <v>4297.383055734183</v>
+        <v>4427.000357408587</v>
       </c>
       <c r="AD2" t="n">
-        <v>3472181.54663838</v>
+        <v>3576909.190686401</v>
       </c>
       <c r="AE2" t="n">
-        <v>4750791.973949709</v>
+        <v>4894084.956793794</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.811857778007905e-07</v>
+        <v>1.694258610120555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4297383.055734183</v>
+        <v>4427000.357408587</v>
       </c>
     </row>
     <row r="3">
@@ -15853,28 +15853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1607.440412529734</v>
+        <v>1677.315676125761</v>
       </c>
       <c r="AB3" t="n">
-        <v>2199.370887689234</v>
+        <v>2294.977306020385</v>
       </c>
       <c r="AC3" t="n">
-        <v>1989.466017004601</v>
+        <v>2075.947892954677</v>
       </c>
       <c r="AD3" t="n">
-        <v>1607440.412529734</v>
+        <v>1677315.676125761</v>
       </c>
       <c r="AE3" t="n">
-        <v>2199370.887689234</v>
+        <v>2294977.306020385</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.373881975139614e-06</v>
+        <v>2.641567106858085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.55104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1989466.017004601</v>
+        <v>2075947.892954677</v>
       </c>
     </row>
     <row r="4">
@@ -15959,28 +15959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1308.198667780724</v>
+        <v>1366.342802764726</v>
       </c>
       <c r="AB4" t="n">
-        <v>1789.935130909584</v>
+        <v>1869.490501532894</v>
       </c>
       <c r="AC4" t="n">
-        <v>1619.106234205307</v>
+        <v>1691.068951912991</v>
       </c>
       <c r="AD4" t="n">
-        <v>1308198.667780724</v>
+        <v>1366342.802764726</v>
       </c>
       <c r="AE4" t="n">
-        <v>1789935.130909584</v>
+        <v>1869490.501532894</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550606647036038e-06</v>
+        <v>2.981356178044089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1619106.234205307</v>
+        <v>1691068.951912991</v>
       </c>
     </row>
     <row r="5">
@@ -16065,28 +16065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1171.503803458677</v>
+        <v>1229.7331897887</v>
       </c>
       <c r="AB5" t="n">
-        <v>1602.903186992361</v>
+        <v>1682.57520226832</v>
       </c>
       <c r="AC5" t="n">
-        <v>1449.924356514562</v>
+        <v>1521.992586472958</v>
       </c>
       <c r="AD5" t="n">
-        <v>1171503.803458677</v>
+        <v>1229733.1897887</v>
       </c>
       <c r="AE5" t="n">
-        <v>1602903.186992361</v>
+        <v>1682575.20226832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642777704361328e-06</v>
+        <v>3.158573753964375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.660416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1449924.356514562</v>
+        <v>1521992.586472959</v>
       </c>
     </row>
     <row r="6">
@@ -16171,28 +16171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1098.884443766589</v>
+        <v>1156.94323789602</v>
       </c>
       <c r="AB6" t="n">
-        <v>1503.542175321605</v>
+        <v>1582.980778822716</v>
       </c>
       <c r="AC6" t="n">
-        <v>1360.046220343607</v>
+        <v>1431.903315019352</v>
       </c>
       <c r="AD6" t="n">
-        <v>1098884.443766589</v>
+        <v>1156943.23789602</v>
       </c>
       <c r="AE6" t="n">
-        <v>1503542.175321605</v>
+        <v>1582980.778822716</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.699299129597167e-06</v>
+        <v>3.267247672421277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.339583333333332</v>
       </c>
       <c r="AH6" t="n">
-        <v>1360046.220343607</v>
+        <v>1431903.315019352</v>
       </c>
     </row>
     <row r="7">
@@ -16277,28 +16277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1047.975310973517</v>
+        <v>1094.558909546087</v>
       </c>
       <c r="AB7" t="n">
-        <v>1433.886053881696</v>
+        <v>1497.623788572012</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.037981370943</v>
+        <v>1354.692676118887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1047975.310973517</v>
+        <v>1094558.909546087</v>
       </c>
       <c r="AE7" t="n">
-        <v>1433886.053881696</v>
+        <v>1497623.788572012</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.737538692223032e-06</v>
+        <v>3.340770997307215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.133333333333335</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297037.981370943</v>
+        <v>1354692.676118887</v>
       </c>
     </row>
     <row r="8">
@@ -16383,28 +16383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>996.0204222604706</v>
+        <v>1054.164467735922</v>
       </c>
       <c r="AB8" t="n">
-        <v>1362.799083056584</v>
+        <v>1442.354331210345</v>
       </c>
       <c r="AC8" t="n">
-        <v>1232.735451270189</v>
+        <v>1304.698058196646</v>
       </c>
       <c r="AD8" t="n">
-        <v>996020.4222604706</v>
+        <v>1054164.467735921</v>
       </c>
       <c r="AE8" t="n">
-        <v>1362799.083056584</v>
+        <v>1442354.331210345</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.766027928123576e-06</v>
+        <v>3.395547338955303e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.986458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1232735.451270189</v>
+        <v>1304698.058196646</v>
       </c>
     </row>
     <row r="9">
@@ -16489,28 +16489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>964.288244845245</v>
+        <v>1022.432290320696</v>
       </c>
       <c r="AB9" t="n">
-        <v>1319.381717992206</v>
+        <v>1398.936966145967</v>
       </c>
       <c r="AC9" t="n">
-        <v>1193.461778590901</v>
+        <v>1265.424385517359</v>
       </c>
       <c r="AD9" t="n">
-        <v>964288.244845245</v>
+        <v>1022432.290320696</v>
       </c>
       <c r="AE9" t="n">
-        <v>1319381.717992206</v>
+        <v>1398936.966145967</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.785833279284382e-06</v>
+        <v>3.433627148657182e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.886458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1193461.778590901</v>
+        <v>1265424.385517359</v>
       </c>
     </row>
     <row r="10">
@@ -16595,28 +16595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>932.8752940626841</v>
+        <v>991.0193395381356</v>
       </c>
       <c r="AB10" t="n">
-        <v>1276.401132889926</v>
+        <v>1355.956381043687</v>
       </c>
       <c r="AC10" t="n">
-        <v>1154.583200207152</v>
+        <v>1226.54580713361</v>
       </c>
       <c r="AD10" t="n">
-        <v>932875.2940626842</v>
+        <v>991019.3395381356</v>
       </c>
       <c r="AE10" t="n">
-        <v>1276401.132889926</v>
+        <v>1355956.381043687</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.802286955633359e-06</v>
+        <v>3.465262682871052e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.805208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1154583.200207152</v>
+        <v>1226545.80713361</v>
       </c>
     </row>
     <row r="11">
@@ -16701,28 +16701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>906.1091469631942</v>
+        <v>964.2531924386457</v>
       </c>
       <c r="AB11" t="n">
-        <v>1239.778509589333</v>
+        <v>1319.333757743094</v>
       </c>
       <c r="AC11" t="n">
-        <v>1121.455788674193</v>
+        <v>1193.418395600651</v>
       </c>
       <c r="AD11" t="n">
-        <v>906109.1469631942</v>
+        <v>964253.1924386456</v>
       </c>
       <c r="AE11" t="n">
-        <v>1239778.509589333</v>
+        <v>1319333.757743094</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.815846003735758e-06</v>
+        <v>3.491332706436184e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.739583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1121455.788674193</v>
+        <v>1193418.395600651</v>
       </c>
     </row>
     <row r="12">
@@ -16807,28 +16807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>886.9000891822629</v>
+        <v>945.0441346577143</v>
       </c>
       <c r="AB12" t="n">
-        <v>1213.495829289643</v>
+        <v>1293.051077443404</v>
       </c>
       <c r="AC12" t="n">
-        <v>1097.681490494332</v>
+        <v>1169.64409742079</v>
       </c>
       <c r="AD12" t="n">
-        <v>886900.0891822629</v>
+        <v>945044.1346577143</v>
       </c>
       <c r="AE12" t="n">
-        <v>1213495.829289643</v>
+        <v>1293051.077443404</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.822549353359415e-06</v>
+        <v>3.504221257412205e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.707291666666668</v>
       </c>
       <c r="AH12" t="n">
-        <v>1097681.490494332</v>
+        <v>1169644.09742079</v>
       </c>
     </row>
     <row r="13">
@@ -16913,28 +16913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>885.4719167366129</v>
+        <v>943.6159622120642</v>
       </c>
       <c r="AB13" t="n">
-        <v>1211.541740742983</v>
+        <v>1291.096988896744</v>
       </c>
       <c r="AC13" t="n">
-        <v>1095.913897415985</v>
+        <v>1167.876504342443</v>
       </c>
       <c r="AD13" t="n">
-        <v>885471.9167366129</v>
+        <v>943615.9622120642</v>
       </c>
       <c r="AE13" t="n">
-        <v>1211541.740742983</v>
+        <v>1291096.988896744</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.511544297739491e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.689583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1095913.897415985</v>
+        <v>1167876.504342443</v>
       </c>
     </row>
     <row r="14">
@@ -17019,28 +17019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>888.3481470903208</v>
+        <v>946.492192565772</v>
       </c>
       <c r="AB14" t="n">
-        <v>1215.477126003254</v>
+        <v>1295.032374157015</v>
       </c>
       <c r="AC14" t="n">
-        <v>1099.473695030364</v>
+        <v>1171.436301956821</v>
       </c>
       <c r="AD14" t="n">
-        <v>888348.1470903208</v>
+        <v>946492.192565772</v>
       </c>
       <c r="AE14" t="n">
-        <v>1215477.126003254</v>
+        <v>1295032.374157015</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.511544297739491e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.689583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1099473.695030364</v>
+        <v>1171436.301956821</v>
       </c>
     </row>
     <row r="15">
@@ -17125,28 +17125,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>892.3719643023263</v>
+        <v>950.5160097777775</v>
       </c>
       <c r="AB15" t="n">
-        <v>1220.982690231007</v>
+        <v>1300.537938384768</v>
       </c>
       <c r="AC15" t="n">
-        <v>1104.453815935327</v>
+        <v>1176.416422861785</v>
       </c>
       <c r="AD15" t="n">
-        <v>892371.9643023263</v>
+        <v>950516.0097777775</v>
       </c>
       <c r="AE15" t="n">
-        <v>1220982.690231007</v>
+        <v>1300537.938384768</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.826358074736493e-06</v>
+        <v>3.511544297739491e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.689583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1104453.815935327</v>
+        <v>1176416.422861785</v>
       </c>
     </row>
   </sheetData>
@@ -17422,28 +17422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5664.603006679567</v>
+        <v>5809.63193109743</v>
       </c>
       <c r="AB2" t="n">
-        <v>7750.559738386698</v>
+        <v>7948.99471099981</v>
       </c>
       <c r="AC2" t="n">
-        <v>7010.857194933691</v>
+        <v>7190.353812265834</v>
       </c>
       <c r="AD2" t="n">
-        <v>5664603.006679568</v>
+        <v>5809631.93109743</v>
       </c>
       <c r="AE2" t="n">
-        <v>7750559.738386698</v>
+        <v>7948994.71099981</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.767270123842747e-07</v>
+        <v>1.260691096747831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.63645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7010857.194933691</v>
+        <v>7190353.812265834</v>
       </c>
     </row>
     <row r="3">
@@ -17528,28 +17528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2055.336152843757</v>
+        <v>2139.900800064772</v>
       </c>
       <c r="AB3" t="n">
-        <v>2812.201599352369</v>
+        <v>2927.906680409095</v>
       </c>
       <c r="AC3" t="n">
-        <v>2543.809025659912</v>
+        <v>2648.471376173686</v>
       </c>
       <c r="AD3" t="n">
-        <v>2055336.152843757</v>
+        <v>2139900.800064772</v>
       </c>
       <c r="AE3" t="n">
-        <v>2812201.599352369</v>
+        <v>2927906.680409095</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217432189380576e-06</v>
+        <v>2.267983830937699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.58229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2543809.025659912</v>
+        <v>2648471.376173686</v>
       </c>
     </row>
     <row r="4">
@@ -17634,28 +17634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1597.473264656317</v>
+        <v>1669.945056437963</v>
       </c>
       <c r="AB4" t="n">
-        <v>2185.733396249296</v>
+        <v>2284.892498994747</v>
       </c>
       <c r="AC4" t="n">
-        <v>1977.130068607351</v>
+        <v>2066.825565757451</v>
       </c>
       <c r="AD4" t="n">
-        <v>1597473.264656317</v>
+        <v>1669945.056437963</v>
       </c>
       <c r="AE4" t="n">
-        <v>2185733.396249296</v>
+        <v>2284892.498994747</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41506823993348e-06</v>
+        <v>2.636164803130025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.825</v>
       </c>
       <c r="AH4" t="n">
-        <v>1977130.068607351</v>
+        <v>2066825.565757451</v>
       </c>
     </row>
     <row r="5">
@@ -17740,28 +17740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1425.676571349323</v>
+        <v>1486.05559720015</v>
       </c>
       <c r="AB5" t="n">
-        <v>1950.673581331466</v>
+        <v>2033.286828235191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1764.504032516757</v>
+        <v>1839.23278708441</v>
       </c>
       <c r="AD5" t="n">
-        <v>1425676.571349323</v>
+        <v>1486055.59720015</v>
       </c>
       <c r="AE5" t="n">
-        <v>1950673.581331466</v>
+        <v>2033286.828235191</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.518738936094044e-06</v>
+        <v>2.829295447025553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1764504.032516757</v>
+        <v>1839232.78708441</v>
       </c>
     </row>
     <row r="6">
@@ -17846,28 +17846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1318.308087053177</v>
+        <v>1378.772364250025</v>
       </c>
       <c r="AB6" t="n">
-        <v>1803.767284354256</v>
+        <v>1886.49717591063</v>
       </c>
       <c r="AC6" t="n">
-        <v>1631.618266338768</v>
+        <v>1706.452533157135</v>
       </c>
       <c r="AD6" t="n">
-        <v>1318308.087053177</v>
+        <v>1378772.364250025</v>
       </c>
       <c r="AE6" t="n">
-        <v>1803767.284354256</v>
+        <v>1886497.17591063</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.582853012017456e-06</v>
+        <v>2.948735107647468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.677083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1631618.266338768</v>
+        <v>1706452.533157135</v>
       </c>
     </row>
     <row r="7">
@@ -17952,28 +17952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1255.702902125563</v>
+        <v>1315.996587121818</v>
       </c>
       <c r="AB7" t="n">
-        <v>1718.108108390463</v>
+        <v>1800.604588171991</v>
       </c>
       <c r="AC7" t="n">
-        <v>1554.134281905552</v>
+        <v>1628.757413441267</v>
       </c>
       <c r="AD7" t="n">
-        <v>1255702.902125563</v>
+        <v>1315996.587121818</v>
       </c>
       <c r="AE7" t="n">
-        <v>1718108.108390463</v>
+        <v>1800604.588171991</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.626674100607311e-06</v>
+        <v>3.030370472017493e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.416666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1554134.281905552</v>
+        <v>1628757.413441267</v>
       </c>
     </row>
     <row r="8">
@@ -18058,28 +18058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1208.823828860919</v>
+        <v>1257.195340126948</v>
       </c>
       <c r="AB8" t="n">
-        <v>1653.966092191028</v>
+        <v>1720.150127905676</v>
       </c>
       <c r="AC8" t="n">
-        <v>1496.113889708306</v>
+        <v>1555.981413944225</v>
       </c>
       <c r="AD8" t="n">
-        <v>1208823.828860919</v>
+        <v>1257195.340126948</v>
       </c>
       <c r="AE8" t="n">
-        <v>1653966.092191028</v>
+        <v>1720150.127905676</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.659319341100425e-06</v>
+        <v>3.091186079031404e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.231250000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>1496113.889708306</v>
+        <v>1555981.413944225</v>
       </c>
     </row>
     <row r="9">
@@ -18164,28 +18164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1172.485868248632</v>
+        <v>1220.857379514661</v>
       </c>
       <c r="AB9" t="n">
-        <v>1604.246891363618</v>
+        <v>1670.430927078266</v>
       </c>
       <c r="AC9" t="n">
-        <v>1451.139819626526</v>
+        <v>1511.007343862446</v>
       </c>
       <c r="AD9" t="n">
-        <v>1172485.868248632</v>
+        <v>1220857.379514661</v>
       </c>
       <c r="AE9" t="n">
-        <v>1604246.891363617</v>
+        <v>1670430.927078265</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.682847442356723e-06</v>
+        <v>3.135017147149538e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.103125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1451139.819626526</v>
+        <v>1511007.343862446</v>
       </c>
     </row>
     <row r="10">
@@ -18270,28 +18270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1130.426684466895</v>
+        <v>1190.805620809171</v>
       </c>
       <c r="AB10" t="n">
-        <v>1546.699660593213</v>
+        <v>1629.31278502739</v>
       </c>
       <c r="AC10" t="n">
-        <v>1399.084815792803</v>
+        <v>1473.813459579231</v>
       </c>
       <c r="AD10" t="n">
-        <v>1130426.684466895</v>
+        <v>1190805.620809171</v>
       </c>
       <c r="AE10" t="n">
-        <v>1546699.660593213</v>
+        <v>1629312.78502739</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702111075260317e-06</v>
+        <v>3.17090383417126e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.998958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1399084.815792803</v>
+        <v>1473813.459579231</v>
       </c>
     </row>
     <row r="11">
@@ -18376,28 +18376,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1102.412820827049</v>
+        <v>1162.791757169325</v>
       </c>
       <c r="AB11" t="n">
-        <v>1508.369856476736</v>
+        <v>1590.982980910914</v>
       </c>
       <c r="AC11" t="n">
-        <v>1364.413154384986</v>
+        <v>1439.141798171413</v>
       </c>
       <c r="AD11" t="n">
-        <v>1102412.820827049</v>
+        <v>1162791.757169325</v>
       </c>
       <c r="AE11" t="n">
-        <v>1508369.856476736</v>
+        <v>1590982.980910914</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.717698442342615e-06</v>
+        <v>3.199941916799524e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.917708333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1364413.154384986</v>
+        <v>1439141.798171413</v>
       </c>
     </row>
     <row r="12">
@@ -18482,28 +18482,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1078.081673814895</v>
+        <v>1138.460610157171</v>
       </c>
       <c r="AB12" t="n">
-        <v>1475.078907720259</v>
+        <v>1557.692032154436</v>
       </c>
       <c r="AC12" t="n">
-        <v>1334.299447053687</v>
+        <v>1409.028090840114</v>
       </c>
       <c r="AD12" t="n">
-        <v>1078081.673814895</v>
+        <v>1138460.610157171</v>
       </c>
       <c r="AE12" t="n">
-        <v>1475078.907720259</v>
+        <v>1557692.032154436</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.731227100564986e-06</v>
+        <v>3.225144780967451e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.847916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1334299.447053687</v>
+        <v>1409028.090840114</v>
       </c>
     </row>
     <row r="13">
@@ -18588,28 +18588,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1058.012167143118</v>
+        <v>1118.391103485394</v>
       </c>
       <c r="AB13" t="n">
-        <v>1447.618923287788</v>
+        <v>1530.232047721965</v>
       </c>
       <c r="AC13" t="n">
-        <v>1309.46020499512</v>
+        <v>1384.188848781548</v>
       </c>
       <c r="AD13" t="n">
-        <v>1058012.167143118</v>
+        <v>1118391.103485394</v>
       </c>
       <c r="AE13" t="n">
-        <v>1447618.923287788</v>
+        <v>1530232.047721965</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.740638341067505e-06</v>
+        <v>3.242677208214704e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>1309460.20499512</v>
+        <v>1384188.848781548</v>
       </c>
     </row>
     <row r="14">
@@ -18694,28 +18694,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1034.928891551315</v>
+        <v>1095.307827893592</v>
       </c>
       <c r="AB14" t="n">
-        <v>1416.035367260837</v>
+        <v>1498.648491695014</v>
       </c>
       <c r="AC14" t="n">
-        <v>1280.890939227582</v>
+        <v>1355.619583014009</v>
       </c>
       <c r="AD14" t="n">
-        <v>1034928.891551316</v>
+        <v>1095307.827893591</v>
       </c>
       <c r="AE14" t="n">
-        <v>1416035.367260837</v>
+        <v>1498648.491695014</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.749020227140062e-06</v>
+        <v>3.25829202623179e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1280890.939227582</v>
+        <v>1355619.583014009</v>
       </c>
     </row>
     <row r="15">
@@ -18800,28 +18800,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1015.986456312102</v>
+        <v>1076.365392654378</v>
       </c>
       <c r="AB15" t="n">
-        <v>1390.117491685281</v>
+        <v>1472.730616119459</v>
       </c>
       <c r="AC15" t="n">
-        <v>1257.446629320991</v>
+        <v>1332.175273107418</v>
       </c>
       <c r="AD15" t="n">
-        <v>1015986.456312102</v>
+        <v>1076365.392654378</v>
       </c>
       <c r="AE15" t="n">
-        <v>1390117.491685282</v>
+        <v>1472730.616119459</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.757990315744025e-06</v>
+        <v>3.275002620951828e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.713541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1257446.629320991</v>
+        <v>1332175.273107418</v>
       </c>
     </row>
     <row r="16">
@@ -18906,28 +18906,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>995.6213061417772</v>
+        <v>1056.000242484053</v>
       </c>
       <c r="AB16" t="n">
-        <v>1362.252994775227</v>
+        <v>1444.866119209404</v>
       </c>
       <c r="AC16" t="n">
-        <v>1232.241480887965</v>
+        <v>1306.970124674392</v>
       </c>
       <c r="AD16" t="n">
-        <v>995621.3061417772</v>
+        <v>1056000.242484053</v>
       </c>
       <c r="AE16" t="n">
-        <v>1362252.994775227</v>
+        <v>1444866.119209404</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.764901695488063e-06</v>
+        <v>3.28787799721153e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.679166666666665</v>
       </c>
       <c r="AH16" t="n">
-        <v>1232241.480887965</v>
+        <v>1306970.124674392</v>
       </c>
     </row>
     <row r="17">
@@ -19012,28 +19012,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>987.6956902992274</v>
+        <v>1048.074626641503</v>
       </c>
       <c r="AB17" t="n">
-        <v>1351.408817525956</v>
+        <v>1434.021941960133</v>
       </c>
       <c r="AC17" t="n">
-        <v>1222.432256695466</v>
+        <v>1297.160900481894</v>
       </c>
       <c r="AD17" t="n">
-        <v>987695.6902992274</v>
+        <v>1048074.626641503</v>
       </c>
       <c r="AE17" t="n">
-        <v>1351408.817525956</v>
+        <v>1434021.941960133</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.768430910676507e-06</v>
+        <v>3.29445265742925e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.6625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1222432.256695466</v>
+        <v>1297160.900481894</v>
       </c>
     </row>
     <row r="18">
@@ -19118,28 +19118,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>987.2881123303879</v>
+        <v>1047.667048672664</v>
       </c>
       <c r="AB18" t="n">
-        <v>1350.85115136792</v>
+        <v>1433.464275802097</v>
       </c>
       <c r="AC18" t="n">
-        <v>1221.927813412863</v>
+        <v>1296.656457199291</v>
       </c>
       <c r="AD18" t="n">
-        <v>987288.1123303879</v>
+        <v>1047667.048672664</v>
       </c>
       <c r="AE18" t="n">
-        <v>1350851.15136792</v>
+        <v>1433464.275802097</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.770048467637878e-06</v>
+        <v>3.297466043362372e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.654166666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1221927.813412863</v>
+        <v>1296656.457199291</v>
       </c>
     </row>
     <row r="19">
@@ -19224,28 +19224,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>992.1321586275243</v>
+        <v>1052.5110949698</v>
       </c>
       <c r="AB19" t="n">
-        <v>1357.478989215901</v>
+        <v>1440.092113650078</v>
       </c>
       <c r="AC19" t="n">
-        <v>1227.923099718863</v>
+        <v>1302.65174350529</v>
       </c>
       <c r="AD19" t="n">
-        <v>992132.1586275243</v>
+        <v>1052511.0949698</v>
       </c>
       <c r="AE19" t="n">
-        <v>1357478.989215901</v>
+        <v>1440092.113650078</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.769607315739322e-06</v>
+        <v>3.296644210835157e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.65625</v>
       </c>
       <c r="AH19" t="n">
-        <v>1227923.099718863</v>
+        <v>1302651.74350529</v>
       </c>
     </row>
     <row r="20">
@@ -19330,28 +19330,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>995.9972418416877</v>
+        <v>1056.376178183964</v>
       </c>
       <c r="AB20" t="n">
-        <v>1362.767366584957</v>
+        <v>1445.380491019134</v>
       </c>
       <c r="AC20" t="n">
-        <v>1232.7067617741</v>
+        <v>1307.435405560527</v>
       </c>
       <c r="AD20" t="n">
-        <v>995997.2418416877</v>
+        <v>1056376.178183964</v>
       </c>
       <c r="AE20" t="n">
-        <v>1362767.366584957</v>
+        <v>1445380.491019134</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.769754366372174e-06</v>
+        <v>3.296918155010895e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.655208333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1232706.761774099</v>
+        <v>1307435.405560527</v>
       </c>
     </row>
   </sheetData>
@@ -19627,28 +19627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2154.189922220346</v>
+        <v>2243.06844927865</v>
       </c>
       <c r="AB2" t="n">
-        <v>2947.457687733931</v>
+        <v>3069.065209499158</v>
       </c>
       <c r="AC2" t="n">
-        <v>2666.15646279945</v>
+        <v>2776.157933364518</v>
       </c>
       <c r="AD2" t="n">
-        <v>2154189.922220347</v>
+        <v>2243068.44927865</v>
       </c>
       <c r="AE2" t="n">
-        <v>2947457.687733931</v>
+        <v>3069065.209499158</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125694593966769e-06</v>
+        <v>2.256451836104066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2666156.46279945</v>
+        <v>2776157.933364518</v>
       </c>
     </row>
     <row r="3">
@@ -19733,28 +19733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1211.496674363757</v>
+        <v>1278.13423444384</v>
       </c>
       <c r="AB3" t="n">
-        <v>1657.623197325633</v>
+        <v>1748.799646868869</v>
       </c>
       <c r="AC3" t="n">
-        <v>1499.421965861643</v>
+        <v>1581.896663027424</v>
       </c>
       <c r="AD3" t="n">
-        <v>1211496.674363757</v>
+        <v>1278134.23444384</v>
       </c>
       <c r="AE3" t="n">
-        <v>1657623.197325633</v>
+        <v>1748799.646868869</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.560636513116733e-06</v>
+        <v>3.128291762603291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1499421.965861643</v>
+        <v>1581896.663027424</v>
       </c>
     </row>
     <row r="4">
@@ -19839,28 +19839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1017.689642948363</v>
+        <v>1073.292060393909</v>
       </c>
       <c r="AB4" t="n">
-        <v>1392.447866780306</v>
+        <v>1468.525547334834</v>
       </c>
       <c r="AC4" t="n">
-        <v>1259.554596687648</v>
+        <v>1328.371530185747</v>
       </c>
       <c r="AD4" t="n">
-        <v>1017689.642948363</v>
+        <v>1073292.060393909</v>
       </c>
       <c r="AE4" t="n">
-        <v>1392447.866780306</v>
+        <v>1468525.547334834</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.712086661994116e-06</v>
+        <v>3.431873185436965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.679166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1259554.596687648</v>
+        <v>1328371.530185747</v>
       </c>
     </row>
     <row r="5">
@@ -19945,28 +19945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>930.0984540783713</v>
+        <v>985.5302793233243</v>
       </c>
       <c r="AB5" t="n">
-        <v>1272.601737917855</v>
+        <v>1348.446006697536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1151.146414158731</v>
+        <v>1219.752212374179</v>
       </c>
       <c r="AD5" t="n">
-        <v>930098.4540783713</v>
+        <v>985530.2793233243</v>
       </c>
       <c r="AE5" t="n">
-        <v>1272601.737917855</v>
+        <v>1348446.006697536</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.789561685632021e-06</v>
+        <v>3.587171665394947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.260416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1151146.414158731</v>
+        <v>1219752.212374179</v>
       </c>
     </row>
     <row r="6">
@@ -20051,28 +20051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.2977423202046</v>
+        <v>912.7797657851919</v>
       </c>
       <c r="AB6" t="n">
-        <v>1188.043277635352</v>
+        <v>1248.905544548523</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.658094647046</v>
+        <v>1129.711752226752</v>
       </c>
       <c r="AD6" t="n">
-        <v>868297.7423202046</v>
+        <v>912779.7657851919</v>
       </c>
       <c r="AE6" t="n">
-        <v>1188043.277635352</v>
+        <v>1248905.544548523</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.840151126118374e-06</v>
+        <v>3.688578065038968e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.005208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074658.094647046</v>
+        <v>1129711.752226752</v>
       </c>
     </row>
     <row r="7">
@@ -20157,28 +20157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>814.5375192376607</v>
+        <v>870.0545958286342</v>
       </c>
       <c r="AB7" t="n">
-        <v>1114.486168680161</v>
+        <v>1190.447082112492</v>
       </c>
       <c r="AC7" t="n">
-        <v>1008.121172932488</v>
+        <v>1076.832483398648</v>
       </c>
       <c r="AD7" t="n">
-        <v>814537.5192376607</v>
+        <v>870054.5958286342</v>
       </c>
       <c r="AE7" t="n">
-        <v>1114486.168680161</v>
+        <v>1190447.082112492</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.87069569395919e-06</v>
+        <v>3.749804570484414e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.858333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1008121.172932488</v>
+        <v>1076832.483398648</v>
       </c>
     </row>
     <row r="8">
@@ -20263,28 +20263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>784.5003815753755</v>
+        <v>840.0174581663493</v>
       </c>
       <c r="AB8" t="n">
-        <v>1073.388031785634</v>
+        <v>1149.348945217964</v>
       </c>
       <c r="AC8" t="n">
-        <v>970.9453845415763</v>
+        <v>1039.656695007737</v>
       </c>
       <c r="AD8" t="n">
-        <v>784500.3815753756</v>
+        <v>840017.4581663493</v>
       </c>
       <c r="AE8" t="n">
-        <v>1073388.031785634</v>
+        <v>1149348.945217964</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.889308789987188e-06</v>
+        <v>3.787114472240233e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.770833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>970945.3845415764</v>
+        <v>1039656.695007737</v>
       </c>
     </row>
     <row r="9">
@@ -20369,28 +20369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>783.9015216706014</v>
+        <v>839.4185982615749</v>
       </c>
       <c r="AB9" t="n">
-        <v>1072.568645244087</v>
+        <v>1148.529558676418</v>
       </c>
       <c r="AC9" t="n">
-        <v>970.2041991015387</v>
+        <v>1038.915509567699</v>
       </c>
       <c r="AD9" t="n">
-        <v>783901.5216706013</v>
+        <v>839418.5982615749</v>
       </c>
       <c r="AE9" t="n">
-        <v>1072568.645244087</v>
+        <v>1148529.558676417</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.891376911768077e-06</v>
+        <v>3.791260016879769e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.761458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>970204.1991015387</v>
+        <v>1038915.509567699</v>
       </c>
     </row>
     <row r="10">
@@ -20475,28 +20475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>787.8601496347663</v>
+        <v>843.3772262257401</v>
       </c>
       <c r="AB10" t="n">
-        <v>1077.985014666998</v>
+        <v>1153.945928099329</v>
       </c>
       <c r="AC10" t="n">
-        <v>975.1036378286492</v>
+        <v>1043.81494829481</v>
       </c>
       <c r="AD10" t="n">
-        <v>787860.1496347664</v>
+        <v>843377.22622574</v>
       </c>
       <c r="AE10" t="n">
-        <v>1077985.014666998</v>
+        <v>1153945.928099328</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.891695084349752e-06</v>
+        <v>3.791897792978159e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.760416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>975103.6378286493</v>
+        <v>1043814.94829481</v>
       </c>
     </row>
   </sheetData>
@@ -20772,28 +20772,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1467.177289328128</v>
+        <v>1541.60869152166</v>
       </c>
       <c r="AB2" t="n">
-        <v>2007.456694552526</v>
+        <v>2109.297022715431</v>
       </c>
       <c r="AC2" t="n">
-        <v>1815.867845107599</v>
+        <v>1907.988675284435</v>
       </c>
       <c r="AD2" t="n">
-        <v>1467177.289328128</v>
+        <v>1541608.69152166</v>
       </c>
       <c r="AE2" t="n">
-        <v>2007456.694552526</v>
+        <v>2109297.022715432</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352733014072598e-06</v>
+        <v>2.830002062544747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1815867.845107599</v>
+        <v>1907988.675284435</v>
       </c>
     </row>
     <row r="3">
@@ -20878,28 +20878,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>930.160851172427</v>
+        <v>993.8616635045159</v>
       </c>
       <c r="AB3" t="n">
-        <v>1272.687112374707</v>
+        <v>1359.845374088972</v>
       </c>
       <c r="AC3" t="n">
-        <v>1151.223640597245</v>
+        <v>1230.063640140889</v>
       </c>
       <c r="AD3" t="n">
-        <v>930160.8511724269</v>
+        <v>993861.6635045159</v>
       </c>
       <c r="AE3" t="n">
-        <v>1272687.112374707</v>
+        <v>1359845.374088972</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.731060769937812e-06</v>
+        <v>3.621487387644545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.971875000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>1151223.640597245</v>
+        <v>1230063.640140889</v>
       </c>
     </row>
     <row r="4">
@@ -20984,28 +20984,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>801.513649903335</v>
+        <v>854.569302737103</v>
       </c>
       <c r="AB4" t="n">
-        <v>1096.666336084373</v>
+        <v>1169.259420941743</v>
       </c>
       <c r="AC4" t="n">
-        <v>992.0020401493498</v>
+        <v>1057.666942872967</v>
       </c>
       <c r="AD4" t="n">
-        <v>801513.649903335</v>
+        <v>854569.3027371031</v>
       </c>
       <c r="AE4" t="n">
-        <v>1096666.336084373</v>
+        <v>1169259.420941743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.862141477291901e-06</v>
+        <v>3.895716424943687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>992002.0401493498</v>
+        <v>1057666.942872966</v>
       </c>
     </row>
     <row r="5">
@@ -21090,28 +21090,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>721.4891855448301</v>
+        <v>774.6300897246188</v>
       </c>
       <c r="AB5" t="n">
-        <v>987.1733335188649</v>
+        <v>1059.883063028884</v>
       </c>
       <c r="AC5" t="n">
-        <v>892.9588960742991</v>
+        <v>958.7293110486281</v>
       </c>
       <c r="AD5" t="n">
-        <v>721489.18554483</v>
+        <v>774630.0897246187</v>
       </c>
       <c r="AE5" t="n">
-        <v>987173.3335188648</v>
+        <v>1059883.063028884</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925776106399322e-06</v>
+        <v>4.028844048613561e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.963541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>892958.8960742991</v>
+        <v>958729.3110486281</v>
       </c>
     </row>
     <row r="6">
@@ -21196,28 +21196,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>702.5579315187061</v>
+        <v>755.6988356984947</v>
       </c>
       <c r="AB6" t="n">
-        <v>961.270756572339</v>
+        <v>1033.980486082358</v>
       </c>
       <c r="AC6" t="n">
-        <v>869.5284247170547</v>
+        <v>935.2988396913836</v>
       </c>
       <c r="AD6" t="n">
-        <v>702557.9315187061</v>
+        <v>755698.8356984947</v>
       </c>
       <c r="AE6" t="n">
-        <v>961270.756572339</v>
+        <v>1033980.486082358</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.942844769935948e-06</v>
+        <v>4.064552760170845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.885416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>869528.4247170547</v>
+        <v>935298.8396913836</v>
       </c>
     </row>
     <row r="7">
@@ -21302,28 +21302,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>705.5848355553439</v>
+        <v>758.7257397351324</v>
       </c>
       <c r="AB7" t="n">
-        <v>965.4123002128482</v>
+        <v>1038.122029722867</v>
       </c>
       <c r="AC7" t="n">
-        <v>873.2747052452067</v>
+        <v>939.0451202195358</v>
       </c>
       <c r="AD7" t="n">
-        <v>705584.8355553439</v>
+        <v>758725.7397351324</v>
       </c>
       <c r="AE7" t="n">
-        <v>965412.3002128482</v>
+        <v>1038122.029722867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.944667636915587e-06</v>
+        <v>4.068366311890555e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.877083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>873274.7052452067</v>
+        <v>939045.1202195358</v>
       </c>
     </row>
   </sheetData>
@@ -39684,28 +39684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1087.845963284331</v>
+        <v>1149.438274501695</v>
       </c>
       <c r="AB2" t="n">
-        <v>1488.43883934239</v>
+        <v>1572.712156810983</v>
       </c>
       <c r="AC2" t="n">
-        <v>1346.384325552583</v>
+        <v>1422.614715880318</v>
       </c>
       <c r="AD2" t="n">
-        <v>1087845.96328433</v>
+        <v>1149438.274501695</v>
       </c>
       <c r="AE2" t="n">
-        <v>1488438.83934239</v>
+        <v>1572712.156810983</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542308241777752e-06</v>
+        <v>3.352755670286299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1346384.325552583</v>
+        <v>1422614.715880318</v>
       </c>
     </row>
     <row r="3">
@@ -39790,28 +39790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>741.7193157475469</v>
+        <v>793.0462417620168</v>
       </c>
       <c r="AB3" t="n">
-        <v>1014.853090152578</v>
+        <v>1085.080854709739</v>
       </c>
       <c r="AC3" t="n">
-        <v>917.9969355836732</v>
+        <v>981.5222608567856</v>
       </c>
       <c r="AD3" t="n">
-        <v>741719.315747547</v>
+        <v>793046.2417620169</v>
       </c>
       <c r="AE3" t="n">
-        <v>1014853.090152578</v>
+        <v>1085080.854709739</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.875043631050912e-06</v>
+        <v>4.076074416093314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.522916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>917996.9355836732</v>
+        <v>981522.2608567856</v>
       </c>
     </row>
     <row r="4">
@@ -39896,28 +39896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>654.647446346242</v>
+        <v>695.709076666369</v>
       </c>
       <c r="AB4" t="n">
-        <v>895.7175170979425</v>
+        <v>951.89985121322</v>
       </c>
       <c r="AC4" t="n">
-        <v>810.2314944135451</v>
+        <v>861.0518654132616</v>
       </c>
       <c r="AD4" t="n">
-        <v>654647.446346242</v>
+        <v>695709.076666369</v>
       </c>
       <c r="AE4" t="n">
-        <v>895717.5170979425</v>
+        <v>951899.85121322</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.972412874279739e-06</v>
+        <v>4.287741107292893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.053125</v>
       </c>
       <c r="AH4" t="n">
-        <v>810231.4944135451</v>
+        <v>861051.8654132616</v>
       </c>
     </row>
     <row r="5">
@@ -40002,28 +40002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>654.2354826454323</v>
+        <v>695.2971129655593</v>
       </c>
       <c r="AB5" t="n">
-        <v>895.1538501879392</v>
+        <v>951.3361843032166</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.7216230823209</v>
+        <v>860.5419940820374</v>
       </c>
       <c r="AD5" t="n">
-        <v>654235.4826454322</v>
+        <v>695297.1129655594</v>
       </c>
       <c r="AE5" t="n">
-        <v>895153.8501879391</v>
+        <v>951336.1843032165</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.977212766551583e-06</v>
+        <v>4.298175380802731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>809721.6230823209</v>
+        <v>860541.9940820374</v>
       </c>
     </row>
   </sheetData>
@@ -40299,28 +40299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.9128531602258</v>
+        <v>605.4747398654288</v>
       </c>
       <c r="AB2" t="n">
-        <v>763.3609790717783</v>
+        <v>828.4372507441889</v>
       </c>
       <c r="AC2" t="n">
-        <v>690.5068786130302</v>
+        <v>749.3723622521469</v>
       </c>
       <c r="AD2" t="n">
-        <v>557912.8531602258</v>
+        <v>605474.7398654288</v>
       </c>
       <c r="AE2" t="n">
-        <v>763360.9790717782</v>
+        <v>828437.2507441889</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942945194959302e-06</v>
+        <v>4.621347534858281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.864583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>690506.8786130302</v>
+        <v>749372.3622521469</v>
       </c>
     </row>
     <row r="3">
@@ -40405,28 +40405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.4292616617024</v>
+        <v>587.9911483669052</v>
       </c>
       <c r="AB3" t="n">
-        <v>739.4391578618785</v>
+        <v>804.5154295342892</v>
       </c>
       <c r="AC3" t="n">
-        <v>668.8681224449165</v>
+        <v>727.7336060840331</v>
       </c>
       <c r="AD3" t="n">
-        <v>540429.2616617024</v>
+        <v>587991.1483669053</v>
       </c>
       <c r="AE3" t="n">
-        <v>739439.1578618785</v>
+        <v>804515.4295342892</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982319273720788e-06</v>
+        <v>4.714999842856355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.668749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>668868.1224449165</v>
+        <v>727733.6060840331</v>
       </c>
     </row>
   </sheetData>
@@ -40702,28 +40702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3082.640588934539</v>
+        <v>3174.826728852319</v>
       </c>
       <c r="AB2" t="n">
-        <v>4217.804850285111</v>
+        <v>4343.937993886086</v>
       </c>
       <c r="AC2" t="n">
-        <v>3815.263475100027</v>
+        <v>3929.358648504699</v>
       </c>
       <c r="AD2" t="n">
-        <v>3082640.588934539</v>
+        <v>3174826.728852319</v>
       </c>
       <c r="AE2" t="n">
-        <v>4217804.850285111</v>
+        <v>4343937.993886085</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.38143773564902e-07</v>
+        <v>1.820541350744155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3815263.475100027</v>
+        <v>3929358.648504699</v>
       </c>
     </row>
     <row r="3">
@@ -40808,28 +40808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1505.957405429637</v>
+        <v>1574.926351035966</v>
       </c>
       <c r="AB3" t="n">
-        <v>2060.517360260587</v>
+        <v>2154.883714334304</v>
       </c>
       <c r="AC3" t="n">
-        <v>1863.864475351594</v>
+        <v>1949.224637036526</v>
       </c>
       <c r="AD3" t="n">
-        <v>1505957.405429637</v>
+        <v>1574926.351035966</v>
       </c>
       <c r="AE3" t="n">
-        <v>2060517.360260587</v>
+        <v>2154883.714334304</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.418063476656411e-06</v>
+        <v>2.75186306190883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.303125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1863864.475351594</v>
+        <v>1949224.637036526</v>
       </c>
     </row>
     <row r="4">
@@ -40914,28 +40914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1238.266947920224</v>
+        <v>1295.797978079972</v>
       </c>
       <c r="AB4" t="n">
-        <v>1694.251466626708</v>
+        <v>1772.967960181196</v>
       </c>
       <c r="AC4" t="n">
-        <v>1532.554484548723</v>
+        <v>1603.758386437662</v>
       </c>
       <c r="AD4" t="n">
-        <v>1238266.947920224</v>
+        <v>1295797.978079972</v>
       </c>
       <c r="AE4" t="n">
-        <v>1694251.466626708</v>
+        <v>1772967.960181196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587474054759569e-06</v>
+        <v>3.080617535776193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.096875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1532554.484548723</v>
+        <v>1603758.386437662</v>
       </c>
     </row>
     <row r="5">
@@ -41020,28 +41020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1111.705746956198</v>
+        <v>1169.322028461966</v>
       </c>
       <c r="AB5" t="n">
-        <v>1521.084847981605</v>
+        <v>1599.917986188742</v>
       </c>
       <c r="AC5" t="n">
-        <v>1375.914644946232</v>
+        <v>1447.224059085884</v>
       </c>
       <c r="AD5" t="n">
-        <v>1111705.746956198</v>
+        <v>1169322.028461966</v>
       </c>
       <c r="AE5" t="n">
-        <v>1521084.847981605</v>
+        <v>1599917.986188742</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.677333979929637e-06</v>
+        <v>3.254997747164513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.55625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1375914.644946232</v>
+        <v>1447224.059085884</v>
       </c>
     </row>
     <row r="6">
@@ -41126,28 +41126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1044.677914259253</v>
+        <v>1102.123603564429</v>
       </c>
       <c r="AB6" t="n">
-        <v>1429.374410226364</v>
+        <v>1507.974136658654</v>
       </c>
       <c r="AC6" t="n">
-        <v>1292.956922653944</v>
+        <v>1364.055201510945</v>
       </c>
       <c r="AD6" t="n">
-        <v>1044677.914259253</v>
+        <v>1102123.603564429</v>
       </c>
       <c r="AE6" t="n">
-        <v>1429374.410226364</v>
+        <v>1507974.136658654</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.731496126607486e-06</v>
+        <v>3.360103628001309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.257291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1292956.922653944</v>
+        <v>1364055.201510945</v>
       </c>
     </row>
     <row r="7">
@@ -41232,28 +41232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>998.4705760019182</v>
+        <v>1044.563690715084</v>
       </c>
       <c r="AB7" t="n">
-        <v>1366.151491498787</v>
+        <v>1429.218124534044</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.767910555802</v>
+        <v>1292.815552648751</v>
       </c>
       <c r="AD7" t="n">
-        <v>998470.5760019182</v>
+        <v>1044563.690715084</v>
       </c>
       <c r="AE7" t="n">
-        <v>1366151.491498787</v>
+        <v>1429218.124534044</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.766732295895064e-06</v>
+        <v>3.428482169795702e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.072916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235767.910555803</v>
+        <v>1292815.552648751</v>
       </c>
     </row>
     <row r="8">
@@ -41338,28 +41338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>944.3296235241638</v>
+        <v>1001.86056417536</v>
       </c>
       <c r="AB8" t="n">
-        <v>1292.073451788474</v>
+        <v>1370.789822873413</v>
       </c>
       <c r="AC8" t="n">
-        <v>1168.75977498626</v>
+        <v>1239.963566093974</v>
       </c>
       <c r="AD8" t="n">
-        <v>944329.6235241638</v>
+        <v>1001860.56417536</v>
       </c>
       <c r="AE8" t="n">
-        <v>1292073.451788474</v>
+        <v>1370789.822873413</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.79473658764327e-06</v>
+        <v>3.482826687728363e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.93125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1168759.77498626</v>
+        <v>1239963.566093974</v>
       </c>
     </row>
     <row r="9">
@@ -41444,28 +41444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>910.0770524910013</v>
+        <v>967.6079931421976</v>
       </c>
       <c r="AB9" t="n">
-        <v>1245.207572984116</v>
+        <v>1323.923944069055</v>
       </c>
       <c r="AC9" t="n">
-        <v>1126.366709878317</v>
+        <v>1197.57050098603</v>
       </c>
       <c r="AD9" t="n">
-        <v>910077.0524910013</v>
+        <v>967607.9931421976</v>
       </c>
       <c r="AE9" t="n">
-        <v>1245207.572984116</v>
+        <v>1323923.944069055</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.815970611056745e-06</v>
+        <v>3.524032970556424e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.826041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1126366.709878317</v>
+        <v>1197570.50098603</v>
       </c>
     </row>
     <row r="10">
@@ -41550,28 +41550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>881.4750041213624</v>
+        <v>939.0059447725588</v>
       </c>
       <c r="AB10" t="n">
-        <v>1206.072988571458</v>
+        <v>1284.789359656397</v>
       </c>
       <c r="AC10" t="n">
-        <v>1090.967075276268</v>
+        <v>1162.170866383981</v>
       </c>
       <c r="AD10" t="n">
-        <v>881475.0041213625</v>
+        <v>939005.9447725588</v>
       </c>
       <c r="AE10" t="n">
-        <v>1206072.988571458</v>
+        <v>1284789.359656397</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.829972756930848e-06</v>
+        <v>3.551205229522755e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1090967.075276268</v>
+        <v>1162170.866383981</v>
       </c>
     </row>
     <row r="11">
@@ -41656,28 +41656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>863.8779232779383</v>
+        <v>921.4088639291347</v>
       </c>
       <c r="AB11" t="n">
-        <v>1181.995886233069</v>
+        <v>1260.712257318008</v>
       </c>
       <c r="AC11" t="n">
-        <v>1069.18785779263</v>
+        <v>1140.391648900343</v>
       </c>
       <c r="AD11" t="n">
-        <v>863877.9232779383</v>
+        <v>921408.8639291347</v>
       </c>
       <c r="AE11" t="n">
-        <v>1181995.886233069</v>
+        <v>1260712.257318008</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.839512680493424e-06</v>
+        <v>3.569718197170145e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.7125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1069187.85779263</v>
+        <v>1140391.648900343</v>
       </c>
     </row>
     <row r="12">
@@ -41762,28 +41762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>858.7275590414014</v>
+        <v>916.2584996925978</v>
       </c>
       <c r="AB12" t="n">
-        <v>1174.948930666605</v>
+        <v>1253.665301751544</v>
       </c>
       <c r="AC12" t="n">
-        <v>1062.813453774965</v>
+        <v>1134.017244882678</v>
       </c>
       <c r="AD12" t="n">
-        <v>858727.5590414014</v>
+        <v>916258.4996925978</v>
       </c>
       <c r="AE12" t="n">
-        <v>1174948.930666605</v>
+        <v>1253665.301751544</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>3.575391525965313e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>1062813.453774965</v>
+        <v>1134017.244882678</v>
       </c>
     </row>
     <row r="13">
@@ -41868,28 +41868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>863.2804464834288</v>
+        <v>920.8113871346252</v>
       </c>
       <c r="AB13" t="n">
-        <v>1181.178392124005</v>
+        <v>1259.894763208944</v>
       </c>
       <c r="AC13" t="n">
-        <v>1068.448384173975</v>
+        <v>1139.652175281688</v>
       </c>
       <c r="AD13" t="n">
-        <v>863280.4464834288</v>
+        <v>920811.3871346252</v>
       </c>
       <c r="AE13" t="n">
-        <v>1181178.392124005</v>
+        <v>1259894.763208944</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.842436205456148e-06</v>
+        <v>3.575391525965313e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH13" t="n">
-        <v>1068448.384173975</v>
+        <v>1139652.175281688</v>
       </c>
     </row>
   </sheetData>
@@ -42165,28 +42165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4986.655227387069</v>
+        <v>5118.339772931846</v>
       </c>
       <c r="AB2" t="n">
-        <v>6822.961677813491</v>
+        <v>7003.138282540001</v>
       </c>
       <c r="AC2" t="n">
-        <v>6171.787791369573</v>
+        <v>6334.76859382043</v>
       </c>
       <c r="AD2" t="n">
-        <v>4986655.22738707</v>
+        <v>5118339.772931846</v>
       </c>
       <c r="AE2" t="n">
-        <v>6822961.677813492</v>
+        <v>7003138.282540002</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.253552971450456e-07</v>
+        <v>1.361051043004145e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.29270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6171787.791369573</v>
+        <v>6334768.59382043</v>
       </c>
     </row>
     <row r="3">
@@ -42271,28 +42271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1938.9594011118</v>
+        <v>2010.795133990527</v>
       </c>
       <c r="AB3" t="n">
-        <v>2652.969793452772</v>
+        <v>2751.258612346311</v>
       </c>
       <c r="AC3" t="n">
-        <v>2399.77407983213</v>
+        <v>2488.682351799694</v>
       </c>
       <c r="AD3" t="n">
-        <v>1938959.4011118</v>
+        <v>2010795.133990527</v>
       </c>
       <c r="AE3" t="n">
-        <v>2652969.793452772</v>
+        <v>2751258.612346311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254840940257261e-06</v>
+        <v>2.35457378923632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.309375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2399774.07983213</v>
+        <v>2488682.351799693</v>
       </c>
     </row>
     <row r="4">
@@ -42377,28 +42377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1523.848219773293</v>
+        <v>1595.683863143468</v>
       </c>
       <c r="AB4" t="n">
-        <v>2084.996361732601</v>
+        <v>2183.285058156591</v>
       </c>
       <c r="AC4" t="n">
-        <v>1886.007235279613</v>
+        <v>1974.91539646595</v>
       </c>
       <c r="AD4" t="n">
-        <v>1523848.219773293</v>
+        <v>1595683.863143468</v>
       </c>
       <c r="AE4" t="n">
-        <v>2084996.361732601</v>
+        <v>2183285.058156591</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.446558928648214e-06</v>
+        <v>2.714311932859452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1886007.235279613</v>
+        <v>1974915.39646595</v>
       </c>
     </row>
     <row r="5">
@@ -42483,28 +42483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1352.785437006197</v>
+        <v>1424.5357395218</v>
       </c>
       <c r="AB5" t="n">
-        <v>1850.940715593308</v>
+        <v>1949.112644895101</v>
       </c>
       <c r="AC5" t="n">
-        <v>1674.289531508692</v>
+        <v>1763.09206966309</v>
       </c>
       <c r="AD5" t="n">
-        <v>1352785.437006197</v>
+        <v>1424535.7395218</v>
       </c>
       <c r="AE5" t="n">
-        <v>1850940.715593308</v>
+        <v>1949112.644895101</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.547829915555423e-06</v>
+        <v>2.904336025740039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.978125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1674289.531508692</v>
+        <v>1763092.06966309</v>
       </c>
     </row>
     <row r="6">
@@ -42589,28 +42589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1263.106361425766</v>
+        <v>1323.040514946389</v>
       </c>
       <c r="AB6" t="n">
-        <v>1728.237848022575</v>
+        <v>1810.242400977732</v>
       </c>
       <c r="AC6" t="n">
-        <v>1563.297253404354</v>
+        <v>1637.475406919584</v>
       </c>
       <c r="AD6" t="n">
-        <v>1263106.361425766</v>
+        <v>1323040.514946389</v>
       </c>
       <c r="AE6" t="n">
-        <v>1728237.848022575</v>
+        <v>1810242.400977732</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.610549721502348e-06</v>
+        <v>3.022022982238558e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.589583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1563297.253404354</v>
+        <v>1637475.406919583</v>
       </c>
     </row>
     <row r="7">
@@ -42695,28 +42695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1205.018264414101</v>
+        <v>1264.781825734131</v>
       </c>
       <c r="AB7" t="n">
-        <v>1648.759151025238</v>
+        <v>1730.530292205548</v>
       </c>
       <c r="AC7" t="n">
-        <v>1491.40389169939</v>
+        <v>1565.370909931969</v>
       </c>
       <c r="AD7" t="n">
-        <v>1205018.264414101</v>
+        <v>1264781.825734131</v>
       </c>
       <c r="AE7" t="n">
-        <v>1648759.151025238</v>
+        <v>1730530.292205548</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.65221465169404e-06</v>
+        <v>3.100202733482254e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.347916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1491403.89169939</v>
+        <v>1565370.909931969</v>
       </c>
     </row>
     <row r="8">
@@ -42801,28 +42801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1162.849672108113</v>
+        <v>1210.797084433161</v>
       </c>
       <c r="AB8" t="n">
-        <v>1591.062222685188</v>
+        <v>1656.665987518862</v>
       </c>
       <c r="AC8" t="n">
-        <v>1439.213477221968</v>
+        <v>1498.556110815378</v>
       </c>
       <c r="AD8" t="n">
-        <v>1162849.672108113</v>
+        <v>1210797.084433161</v>
       </c>
       <c r="AE8" t="n">
-        <v>1591062.222685188</v>
+        <v>1656665.987518863</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.682610775143495e-06</v>
+        <v>3.157237783321962e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.179166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1439213.477221968</v>
+        <v>1498556.110815378</v>
       </c>
     </row>
     <row r="9">
@@ -42907,28 +42907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1126.416612074321</v>
+        <v>1174.36402439937</v>
       </c>
       <c r="AB9" t="n">
-        <v>1541.212902633785</v>
+        <v>1606.816667467459</v>
       </c>
       <c r="AC9" t="n">
-        <v>1394.12170631231</v>
+        <v>1453.464339905721</v>
       </c>
       <c r="AD9" t="n">
-        <v>1126416.612074321</v>
+        <v>1174364.02439937</v>
       </c>
       <c r="AE9" t="n">
-        <v>1541212.902633785</v>
+        <v>1606816.667467459</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.706482852584287e-06</v>
+        <v>3.202031163927781e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.051041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1394121.70631231</v>
+        <v>1453464.339905721</v>
       </c>
     </row>
     <row r="10">
@@ -43013,28 +43013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1082.083245586015</v>
+        <v>1141.932058252066</v>
       </c>
       <c r="AB10" t="n">
-        <v>1480.554034754393</v>
+        <v>1562.441820587352</v>
       </c>
       <c r="AC10" t="n">
-        <v>1339.252035648072</v>
+        <v>1413.324566131362</v>
       </c>
       <c r="AD10" t="n">
-        <v>1082083.245586015</v>
+        <v>1141932.058252066</v>
       </c>
       <c r="AE10" t="n">
-        <v>1480554.034754393</v>
+        <v>1562441.820587352</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.725165347972732e-06</v>
+        <v>3.237086853097552e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1339252.035648072</v>
+        <v>1413324.566131362</v>
       </c>
     </row>
     <row r="11">
@@ -43119,28 +43119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1057.437366670448</v>
+        <v>1117.286179336498</v>
       </c>
       <c r="AB11" t="n">
-        <v>1446.832455922673</v>
+        <v>1528.720241755632</v>
       </c>
       <c r="AC11" t="n">
-        <v>1308.748796971518</v>
+        <v>1382.821327454809</v>
       </c>
       <c r="AD11" t="n">
-        <v>1057437.366670448</v>
+        <v>1117286.179336498</v>
       </c>
       <c r="AE11" t="n">
-        <v>1446832.455922673</v>
+        <v>1528720.241755632</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.739399630173453e-06</v>
+        <v>3.263795949607855e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.879166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1308748.796971518</v>
+        <v>1382821.327454809</v>
       </c>
     </row>
     <row r="12">
@@ -43225,28 +43225,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1031.87737276336</v>
+        <v>1091.726185429411</v>
       </c>
       <c r="AB12" t="n">
-        <v>1411.860144631649</v>
+        <v>1493.747930464608</v>
       </c>
       <c r="AC12" t="n">
-        <v>1277.114193986162</v>
+        <v>1351.186724469453</v>
       </c>
       <c r="AD12" t="n">
-        <v>1031877.372763361</v>
+        <v>1091726.185429411</v>
       </c>
       <c r="AE12" t="n">
-        <v>1411860.144631649</v>
+        <v>1493747.930464608</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.753485638601249e-06</v>
+        <v>3.290226826362841e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.808333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1277114.193986162</v>
+        <v>1351186.724469453</v>
       </c>
     </row>
     <row r="13">
@@ -43331,28 +43331,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1008.079297719767</v>
+        <v>1067.928110385817</v>
       </c>
       <c r="AB13" t="n">
-        <v>1379.298568460032</v>
+        <v>1461.186354292991</v>
       </c>
       <c r="AC13" t="n">
-        <v>1247.660248943905</v>
+        <v>1321.732779427196</v>
       </c>
       <c r="AD13" t="n">
-        <v>1008079.297719767</v>
+        <v>1067928.110385817</v>
       </c>
       <c r="AE13" t="n">
-        <v>1379298.568460032</v>
+        <v>1461186.354292991</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.763419981387168e-06</v>
+        <v>3.308867549968989e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1247660.248943905</v>
+        <v>1321732.779427196</v>
       </c>
     </row>
     <row r="14">
@@ -43437,28 +43437,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>987.5467503151669</v>
+        <v>1047.395562981218</v>
       </c>
       <c r="AB14" t="n">
-        <v>1351.205031268997</v>
+        <v>1433.092817101956</v>
       </c>
       <c r="AC14" t="n">
-        <v>1222.247919512855</v>
+        <v>1296.320449996146</v>
       </c>
       <c r="AD14" t="n">
-        <v>987546.7503151669</v>
+        <v>1047395.562981218</v>
       </c>
       <c r="AE14" t="n">
-        <v>1351205.031268997</v>
+        <v>1433092.817101956</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.771278491352149e-06</v>
+        <v>3.323613197000719e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.719791666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1222247.919512855</v>
+        <v>1296320.449996146</v>
       </c>
     </row>
     <row r="15">
@@ -43543,28 +43543,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>971.6521433214691</v>
+        <v>1031.50095598752</v>
       </c>
       <c r="AB15" t="n">
-        <v>1329.457328759649</v>
+        <v>1411.345114592608</v>
       </c>
       <c r="AC15" t="n">
-        <v>1202.575787207907</v>
+        <v>1276.648317691198</v>
       </c>
       <c r="AD15" t="n">
-        <v>971652.1433214691</v>
+        <v>1031500.95598752</v>
       </c>
       <c r="AE15" t="n">
-        <v>1329457.328759649</v>
+        <v>1411345.114592608</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.778840453771282e-06</v>
+        <v>3.337802404521817e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.682291666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1202575.787207907</v>
+        <v>1276648.317691198</v>
       </c>
     </row>
     <row r="16">
@@ -43649,28 +43649,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>960.647866057341</v>
+        <v>1020.496678723392</v>
       </c>
       <c r="AB16" t="n">
-        <v>1314.400791132419</v>
+        <v>1396.288576965378</v>
       </c>
       <c r="AC16" t="n">
-        <v>1188.956224399837</v>
+        <v>1263.028754883127</v>
       </c>
       <c r="AD16" t="n">
-        <v>960647.8660573411</v>
+        <v>1020496.678723392</v>
       </c>
       <c r="AE16" t="n">
-        <v>1314400.791132419</v>
+        <v>1396288.576965378</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.781805929229766e-06</v>
+        <v>3.34336679962813e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.668750000000001</v>
       </c>
       <c r="AH16" t="n">
-        <v>1188956.224399837</v>
+        <v>1263028.754883128</v>
       </c>
     </row>
     <row r="17">
@@ -43755,28 +43755,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>959.6731484400708</v>
+        <v>1019.521961106122</v>
       </c>
       <c r="AB17" t="n">
-        <v>1313.067139486963</v>
+        <v>1394.954925319922</v>
       </c>
       <c r="AC17" t="n">
-        <v>1187.749854595632</v>
+        <v>1261.822385078922</v>
       </c>
       <c r="AD17" t="n">
-        <v>959673.1484400708</v>
+        <v>1019521.961106122</v>
       </c>
       <c r="AE17" t="n">
-        <v>1313067.139486963</v>
+        <v>1394954.925319922</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.783436940731931e-06</v>
+        <v>3.346427216936602e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.660416666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1187749.854595632</v>
+        <v>1261822.385078922</v>
       </c>
     </row>
     <row r="18">
@@ -43861,28 +43861,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>964.1494714832345</v>
+        <v>1023.998284149285</v>
       </c>
       <c r="AB18" t="n">
-        <v>1319.191842156055</v>
+        <v>1401.079627989014</v>
       </c>
       <c r="AC18" t="n">
-        <v>1193.290024238059</v>
+        <v>1267.362554721351</v>
       </c>
       <c r="AD18" t="n">
-        <v>964149.4714832345</v>
+        <v>1023998.284149285</v>
       </c>
       <c r="AE18" t="n">
-        <v>1319191.842156055</v>
+        <v>1401079.627989014</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>3.346148997181286e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.660416666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1193290.024238059</v>
+        <v>1267362.554721351</v>
       </c>
     </row>
     <row r="19">
@@ -43967,28 +43967,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>968.5294630794897</v>
+        <v>1028.37827574554</v>
       </c>
       <c r="AB19" t="n">
-        <v>1325.184739889643</v>
+        <v>1407.072525722602</v>
       </c>
       <c r="AC19" t="n">
-        <v>1198.710968223038</v>
+        <v>1272.783498706329</v>
       </c>
       <c r="AD19" t="n">
-        <v>968529.4630794897</v>
+        <v>1028378.27574554</v>
       </c>
       <c r="AE19" t="n">
-        <v>1325184.739889643</v>
+        <v>1407072.525722602</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.783288666959007e-06</v>
+        <v>3.346148997181286e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.661458333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1198710.968223038</v>
+        <v>1272783.498706329</v>
       </c>
     </row>
   </sheetData>
@@ -44264,28 +44264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>491.6135507550397</v>
+        <v>537.3292642251861</v>
       </c>
       <c r="AB2" t="n">
-        <v>672.6473486022107</v>
+        <v>735.1976046070024</v>
       </c>
       <c r="AC2" t="n">
-        <v>608.4508297180981</v>
+        <v>665.0313770796281</v>
       </c>
       <c r="AD2" t="n">
-        <v>491613.5507550397</v>
+        <v>537329.2642251861</v>
       </c>
       <c r="AE2" t="n">
-        <v>672647.3486022108</v>
+        <v>735197.6046070025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.912661522134147e-06</v>
+        <v>4.783421315870352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>608450.8297180982</v>
+        <v>665031.3770796281</v>
       </c>
     </row>
   </sheetData>
@@ -44561,28 +44561,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1679.984386027033</v>
+        <v>1755.511422646841</v>
       </c>
       <c r="AB2" t="n">
-        <v>2298.628752642475</v>
+        <v>2401.968176163391</v>
       </c>
       <c r="AC2" t="n">
-        <v>2079.250850635993</v>
+        <v>2172.727704613864</v>
       </c>
       <c r="AD2" t="n">
-        <v>1679984.386027033</v>
+        <v>1755511.422646841</v>
       </c>
       <c r="AE2" t="n">
-        <v>2298628.752642475</v>
+        <v>2401968.176163391</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.271778411417949e-06</v>
+        <v>2.618952245026053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2079250.850635993</v>
+        <v>2172727.704613864</v>
       </c>
     </row>
     <row r="3">
@@ -44667,28 +44667,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.129245253481</v>
+        <v>1083.113728779175</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.100035333802</v>
+        <v>1481.963987320983</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.712944242355</v>
+        <v>1340.527424320587</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029129.245253481</v>
+        <v>1083113.728779175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408100.035333802</v>
+        <v>1481963.987320983</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671536186347473e-06</v>
+        <v>3.442166818192948e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.17604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273712.944242355</v>
+        <v>1340527.424320587</v>
       </c>
     </row>
     <row r="4">
@@ -44773,28 +44773,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>875.4880750084885</v>
+        <v>929.3872176796109</v>
       </c>
       <c r="AB4" t="n">
-        <v>1197.881408034553</v>
+        <v>1271.628592899536</v>
       </c>
       <c r="AC4" t="n">
-        <v>1083.557287688849</v>
+        <v>1150.266144735143</v>
       </c>
       <c r="AD4" t="n">
-        <v>875488.0750084885</v>
+        <v>929387.2176796109</v>
       </c>
       <c r="AE4" t="n">
-        <v>1197881.408034553</v>
+        <v>1271628.592899536</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808544672117845e-06</v>
+        <v>3.72430612656183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.405208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1083557.287688849</v>
+        <v>1150266.144735143</v>
       </c>
     </row>
     <row r="5">
@@ -44879,28 +44879,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>799.4105462027811</v>
+        <v>842.6664236087038</v>
       </c>
       <c r="AB5" t="n">
-        <v>1093.788776818888</v>
+        <v>1152.973376600301</v>
       </c>
       <c r="AC5" t="n">
-        <v>989.399111101483</v>
+        <v>1042.935215745865</v>
       </c>
       <c r="AD5" t="n">
-        <v>799410.5462027811</v>
+        <v>842666.4236087038</v>
       </c>
       <c r="AE5" t="n">
-        <v>1093788.776818888</v>
+        <v>1152973.376600301</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.877620464109344e-06</v>
+        <v>3.866552762366404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.059375000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>989399.111101483</v>
+        <v>1042935.215745865</v>
       </c>
     </row>
     <row r="6">
@@ -44985,28 +44985,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>740.1028516193055</v>
+        <v>794.0872456364486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1012.641372618954</v>
+        <v>1086.505202136586</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.996301267293</v>
+        <v>982.8106705642983</v>
       </c>
       <c r="AD6" t="n">
-        <v>740102.8516193056</v>
+        <v>794087.2456364486</v>
       </c>
       <c r="AE6" t="n">
-        <v>1012641.372618954</v>
+        <v>1086505.202136586</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.918282100529872e-06</v>
+        <v>3.950286597627252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.867708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>915996.301267293</v>
+        <v>982810.6705642983</v>
       </c>
     </row>
     <row r="7">
@@ -45091,28 +45091,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>728.8657178420203</v>
+        <v>782.8501118591632</v>
       </c>
       <c r="AB7" t="n">
-        <v>997.2662304375178</v>
+        <v>1071.13005995515</v>
       </c>
       <c r="AC7" t="n">
-        <v>902.0885410765056</v>
+        <v>968.9029103735113</v>
       </c>
       <c r="AD7" t="n">
-        <v>728865.7178420203</v>
+        <v>782850.1118591633</v>
       </c>
       <c r="AE7" t="n">
-        <v>997266.2304375179</v>
+        <v>1071130.05995515</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>3.965419218457526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>902088.5410765057</v>
+        <v>968902.9103735113</v>
       </c>
     </row>
     <row r="8">
@@ -45197,28 +45197,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>733.3256133297311</v>
+        <v>787.3100073468743</v>
       </c>
       <c r="AB8" t="n">
-        <v>1003.368456200507</v>
+        <v>1077.232285718139</v>
       </c>
       <c r="AC8" t="n">
-        <v>907.6083789772024</v>
+        <v>974.4227482742078</v>
       </c>
       <c r="AD8" t="n">
-        <v>733325.6133297312</v>
+        <v>787310.0073468742</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003368.456200507</v>
+        <v>1077232.285718139</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.925630589039606e-06</v>
+        <v>3.965419218457526e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>907608.3789772023</v>
+        <v>974422.7482742078</v>
       </c>
     </row>
   </sheetData>
@@ -45494,28 +45494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2431.975447414906</v>
+        <v>2521.895313844503</v>
       </c>
       <c r="AB2" t="n">
-        <v>3327.536098337773</v>
+        <v>3450.568426571285</v>
       </c>
       <c r="AC2" t="n">
-        <v>3009.960723338536</v>
+        <v>3121.251018842393</v>
       </c>
       <c r="AD2" t="n">
-        <v>2431975.447414906</v>
+        <v>2521895.313844502</v>
       </c>
       <c r="AE2" t="n">
-        <v>3327536.098337773</v>
+        <v>3450568.426571285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.059680672638955e-06</v>
+        <v>2.099422512195637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.45520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3009960.723338536</v>
+        <v>3121251.018842394</v>
       </c>
     </row>
     <row r="3">
@@ -45600,28 +45600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1303.788739031697</v>
+        <v>1371.271242149767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1783.901271842841</v>
+        <v>1876.233809726906</v>
       </c>
       <c r="AC3" t="n">
-        <v>1613.648238179319</v>
+        <v>1697.168688237261</v>
       </c>
       <c r="AD3" t="n">
-        <v>1303788.739031697</v>
+        <v>1371271.242149767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1783901.271842841</v>
+        <v>1876233.809726906</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.510438015139828e-06</v>
+        <v>2.992455797427817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1613648.238179319</v>
+        <v>1697168.688237261</v>
       </c>
     </row>
     <row r="4">
@@ -45706,28 +45706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1086.430046780366</v>
+        <v>1142.736583424234</v>
       </c>
       <c r="AB4" t="n">
-        <v>1486.501519915838</v>
+        <v>1563.542607421057</v>
       </c>
       <c r="AC4" t="n">
-        <v>1344.631901173056</v>
+        <v>1414.320295414623</v>
       </c>
       <c r="AD4" t="n">
-        <v>1086430.046780366</v>
+        <v>1142736.583424234</v>
       </c>
       <c r="AE4" t="n">
-        <v>1486501.519915838</v>
+        <v>1563542.607421058</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.668604002777037e-06</v>
+        <v>3.305811739159094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.814583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1344631.901173056</v>
+        <v>1414320.295414623</v>
       </c>
     </row>
     <row r="5">
@@ -45812,28 +45812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>990.8586305752577</v>
+        <v>1046.994575018533</v>
       </c>
       <c r="AB5" t="n">
-        <v>1355.736491950698</v>
+        <v>1432.544167681071</v>
       </c>
       <c r="AC5" t="n">
-        <v>1226.34690394704</v>
+        <v>1295.824162905956</v>
       </c>
       <c r="AD5" t="n">
-        <v>990858.6305752577</v>
+        <v>1046994.575018533</v>
       </c>
       <c r="AE5" t="n">
-        <v>1355736.491950698</v>
+        <v>1432544.167681071</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.750831449630178e-06</v>
+        <v>3.468719450417004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.354166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1226346.90394704</v>
+        <v>1295824.162905956</v>
       </c>
     </row>
     <row r="6">
@@ -45918,28 +45918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>931.3145620862534</v>
+        <v>976.3598809098988</v>
       </c>
       <c r="AB6" t="n">
-        <v>1274.265670545138</v>
+        <v>1335.898663018862</v>
       </c>
       <c r="AC6" t="n">
-        <v>1152.651543391411</v>
+        <v>1208.402369565891</v>
       </c>
       <c r="AD6" t="n">
-        <v>931314.5620862534</v>
+        <v>976359.8809098988</v>
       </c>
       <c r="AE6" t="n">
-        <v>1274265.670545138</v>
+        <v>1335898.663018862</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.799727694317228e-06</v>
+        <v>3.565591913516833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="AH6" t="n">
-        <v>1152651.543391411</v>
+        <v>1208402.369565891</v>
       </c>
     </row>
     <row r="7">
@@ -46024,28 +46024,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>873.3525893122994</v>
+        <v>929.5737851015956</v>
       </c>
       <c r="AB7" t="n">
-        <v>1194.959542294047</v>
+        <v>1271.883862677069</v>
       </c>
       <c r="AC7" t="n">
-        <v>1080.914280713753</v>
+        <v>1150.497051923382</v>
       </c>
       <c r="AD7" t="n">
-        <v>873352.5893122994</v>
+        <v>929573.7851015956</v>
       </c>
       <c r="AE7" t="n">
-        <v>1194959.542294047</v>
+        <v>1271883.862677069</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.834316677697135e-06</v>
+        <v>3.634119057831825e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.928125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1080914.280713753</v>
+        <v>1150497.051923382</v>
       </c>
     </row>
     <row r="8">
@@ -46130,28 +46130,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>836.9525734568484</v>
+        <v>893.1737692461446</v>
       </c>
       <c r="AB8" t="n">
-        <v>1145.155434745255</v>
+        <v>1222.079755128277</v>
       </c>
       <c r="AC8" t="n">
-        <v>1035.863407288914</v>
+        <v>1105.446178498542</v>
       </c>
       <c r="AD8" t="n">
-        <v>836952.5734568484</v>
+        <v>893173.7692461446</v>
       </c>
       <c r="AE8" t="n">
-        <v>1145155.434745255</v>
+        <v>1222079.755128277</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.857271184849254e-06</v>
+        <v>3.67959616269541e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.817708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1035863.407288914</v>
+        <v>1105446.178498542</v>
       </c>
     </row>
     <row r="9">
@@ -46236,28 +46236,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>811.2012248264549</v>
+        <v>867.4224206157511</v>
       </c>
       <c r="AB9" t="n">
-        <v>1109.921303479829</v>
+        <v>1186.845623862851</v>
       </c>
       <c r="AC9" t="n">
-        <v>1003.991972060046</v>
+        <v>1073.574743269674</v>
       </c>
       <c r="AD9" t="n">
-        <v>811201.2248264549</v>
+        <v>867422.4206157511</v>
       </c>
       <c r="AE9" t="n">
-        <v>1109921.303479829</v>
+        <v>1186845.623862851</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.870792332897763e-06</v>
+        <v>3.706384046382178e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.754166666666668</v>
       </c>
       <c r="AH9" t="n">
-        <v>1003991.972060046</v>
+        <v>1073574.743269674</v>
       </c>
     </row>
     <row r="10">
@@ -46342,28 +46342,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>809.02205241274</v>
+        <v>865.2432482020362</v>
       </c>
       <c r="AB10" t="n">
-        <v>1106.939663645082</v>
+        <v>1183.863984028104</v>
       </c>
       <c r="AC10" t="n">
-        <v>1001.29489574637</v>
+        <v>1070.877666955998</v>
       </c>
       <c r="AD10" t="n">
-        <v>809022.05241274</v>
+        <v>865243.2482020361</v>
       </c>
       <c r="AE10" t="n">
-        <v>1106939.663645082</v>
+        <v>1183863.984028104</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>3.71261378677445e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.739583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1001294.89574637</v>
+        <v>1070877.666955998</v>
       </c>
     </row>
     <row r="11">
@@ -46448,28 +46448,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>813.0326375333176</v>
+        <v>869.2538333226138</v>
       </c>
       <c r="AB11" t="n">
-        <v>1112.427123141584</v>
+        <v>1189.351443524606</v>
       </c>
       <c r="AC11" t="n">
-        <v>1006.258639810224</v>
+        <v>1075.841411019852</v>
       </c>
       <c r="AD11" t="n">
-        <v>813032.6375333176</v>
+        <v>869253.8333226137</v>
       </c>
       <c r="AE11" t="n">
-        <v>1112427.123141584</v>
+        <v>1189351.443524606</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.8739367859323e-06</v>
+        <v>3.71261378677445e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.739583333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1006258.639810224</v>
+        <v>1075841.411019852</v>
       </c>
     </row>
   </sheetData>
